--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_17_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1401018.536037734</v>
+        <v>1339563.433489487</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6257728.255992166</v>
+        <v>6257728.255992165</v>
       </c>
     </row>
     <row r="11">
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>188.9821206128329</v>
+        <v>185.7279463297024</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.794499176024921</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>11.04867345915545</v>
       </c>
       <c r="S11" t="n">
         <v>158.6609526597583</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.73530103672537</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>26.74378092136415</v>
       </c>
       <c r="S12" t="n">
         <v>149.7201507990578</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>188.9821206128329</v>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>188.9821206128329</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
-        <v>188.9821206128329</v>
+        <v>178.9736407281941</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9996742052518</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.4135685089263</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.88064934470173</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>3.15375446815024</v>
       </c>
       <c r="R13" t="n">
-        <v>132.7207069429703</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>88.13198893615063</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,10 +1612,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>71.49962677614353</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.982120612833</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>188.982120612833</v>
+        <v>185.7279463297026</v>
       </c>
       <c r="I14" t="n">
-        <v>125.2769930127145</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>11.04867345915545</v>
       </c>
       <c r="S14" t="n">
         <v>158.6609526597583</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>188.982120612833</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.982120612833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>16.73530103672547</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>26.74378092136415</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>149.7201507990578</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>188.982120612833</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>188.982120612833</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>188.982120612833</v>
       </c>
       <c r="X15" t="n">
-        <v>6.265141739878565</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>16.45722507062207</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>30.58099042466286</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.27390578493652</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>188.982120612833</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>188.982120612833</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>188.982120612833</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>60.45095331698779</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>188.9821206128329</v>
-      </c>
-      <c r="F17" t="n">
-        <v>60.45095331698776</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>125.2769930127145</v>
@@ -1897,13 +1897,13 @@
         <v>158.6609526597583</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.1610924573098</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>3.550578457109147</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>188.9821206128329</v>
       </c>
       <c r="W18" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.9821206128329</v>
+        <v>162.1606078773844</v>
       </c>
     </row>
     <row r="19">
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>33.73474489281293</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>23.27390578493652</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>132.7207069429703</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>188.9821206128329</v>
       </c>
-      <c r="T19" t="n">
-        <v>188.9821206128329</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>59.86244513674095</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>188.9821206128329</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>155.4067783766277</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>188.9821206128329</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>155.4067783766277</v>
+        <v>188.9821206128329</v>
       </c>
     </row>
     <row r="21">
@@ -2165,13 +2165,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>35.28400789566162</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>26.74378092136415</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>188.9821206128329</v>
       </c>
-      <c r="U21" t="n">
+      <c r="Y21" t="n">
         <v>188.9821206128329</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>10.91608014555229</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>30.58099042466276</v>
+        <v>166.9996742052518</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>52.56343683224394</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>377.9642412256657</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="H23" t="n">
-        <v>316.8422050242307</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>11.04867345915545</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>213.4218162412264</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>332.9109036715664</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>198.2857226808723</v>
+        <v>377.9642412256658</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.1610924573098</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>48.68595767018169</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>26.74378092136415</v>
       </c>
       <c r="S24" t="n">
-        <v>149.7201507990578</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>186.1316413136741</v>
+        <v>190.5171667246294</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8635909819024</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9996742052518</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.4135685089263</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>23.27390578493652</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>3.15375446815024</v>
       </c>
       <c r="R25" t="n">
-        <v>132.7207069429703</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>206.7408527760826</v>
       </c>
       <c r="T25" t="n">
-        <v>223.7100128645788</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.264958166316</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>81.98691765227153</v>
       </c>
       <c r="W25" t="n">
-        <v>127.3687261017074</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>377.9642412256657</v>
+        <v>341.144044218763</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>120.9053556433908</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>11.04867345915545</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.168857324551</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.9642412256657</v>
+        <v>377.9642412256658</v>
       </c>
     </row>
     <row r="27">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.99781166623525</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>100.8157108926651</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.68595767018169</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>195.398727358318</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8635909819024</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>22.46473337165801</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>6.982308864202569</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>23.27390578493652</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.15375446815024</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>132.7207069429703</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>84.40185857337055</v>
+        <v>206.7408527760826</v>
       </c>
       <c r="T28" t="n">
-        <v>223.7100128645788</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.264958166316</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>377.9642412256657</v>
+        <v>69.4386246921175</v>
       </c>
       <c r="C29" t="n">
-        <v>2.343112289472617</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>377.9642412256657</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>125.2769930127145</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>11.04867345915545</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>158.6609526597583</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>12.36592755040476</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>100.8157108926651</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>48.68595767018169</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>26.74378092136415</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>149.7201507990578</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>195.398727358318</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.8635909819024</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>57.11482942129324</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>89.87222253938567</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.4135685089263</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>132.7207069429703</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>206.7408527760826</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>229.7594213925898</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>345.1434298173934</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>377.9642412256657</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.168857324551</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>112.1079948507709</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>377.9642412256658</v>
       </c>
     </row>
     <row r="33">
@@ -3113,10 +3113,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>48.68595767018169</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>26.74378092136415</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>225.8635909819024</v>
       </c>
       <c r="V33" t="n">
-        <v>211.8039086654126</v>
+        <v>90.5445711000329</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>88.50155627697994</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,19 +3198,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9996742052518</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.4135685089263</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>125.6392254108145</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>23.27390578493652</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>132.7207069429703</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.264958166316</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>32.12566977672599</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,61 +3277,61 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>11.04867345915545</v>
+      </c>
+      <c r="S35" t="n">
+        <v>155.4067783766277</v>
+      </c>
+      <c r="T35" t="n">
         <v>188.9821206128329</v>
-      </c>
-      <c r="G35" t="n">
-        <v>166.4554518357831</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>188.9821206128329</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>188.9821206128329</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3353,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>21.32856027279308</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>26.74378092136415</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>149.7201507990578</v>
       </c>
       <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>188.9821206128329</v>
       </c>
-      <c r="U36" t="n">
+      <c r="W36" t="n">
         <v>188.9821206128329</v>
       </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>188.9043887987487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>7.307084639726186</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3468,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>3.15375446815024</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>132.7207069429703</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="T37" t="n">
-        <v>6.910638458810908</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>188.9821206128329</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="X37" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="G38" t="n">
-        <v>41.1784588230686</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="H38" t="n">
-        <v>188.9821206128329</v>
+        <v>155.4067783766278</v>
       </c>
       <c r="I38" t="n">
-        <v>125.2769930127145</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>11.04867345915545</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>48.68595767018169</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>26.74378092136415</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>117.7694941656015</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="U39" t="n">
         <v>188.9821206128329</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="W39" t="n">
-        <v>171.0487110718509</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>125.6392254108145</v>
+        <v>36.42152386362569</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>3.15375446815024</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="T40" t="n">
-        <v>62.55152593917371</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>188.9821206128329</v>
       </c>
       <c r="Y40" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>7.794499176024921</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,43 +3757,43 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>158.6609526597583</v>
+      </c>
+      <c r="T41" t="n">
         <v>188.9821206128329</v>
-      </c>
-      <c r="I41" t="n">
-        <v>125.2769930127145</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>11.04867345915545</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>30.1297853639132</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>113.6877196479084</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.1610924573098</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>100.8157108926651</v>
       </c>
       <c r="I42" t="n">
         <v>48.68595767018169</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>20.3309602957744</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>188.9821206128329</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>26.99011924846648</v>
+        <v>166.4554518357832</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="X43" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="C44" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>155.4067783766278</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>60.45095331698788</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>125.2769930127145</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>11.04867345915545</v>
       </c>
       <c r="S44" t="n">
-        <v>158.6609526597583</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>188.9821206128329</v>
       </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
     </row>
     <row r="45">
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>74.20726759792235</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>136.1610924573098</v>
@@ -4115,7 +4115,7 @@
         <v>188.9821206128329</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>71.83141442666751</v>
       </c>
       <c r="W45" t="n">
         <v>188.9821206128329</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,20 +4182,20 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>132.7207069429703</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>41.7567887034191</v>
+      </c>
+      <c r="V46" t="n">
         <v>188.9821206128329</v>
       </c>
-      <c r="U46" t="n">
-        <v>76.28290285907669</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>188.9821206128329</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>404.7738629840678</v>
+        <v>202.7225558406452</v>
       </c>
       <c r="C11" t="n">
-        <v>404.7738629840678</v>
+        <v>202.7225558406452</v>
       </c>
       <c r="D11" t="n">
-        <v>213.8828320620144</v>
+        <v>202.7225558406452</v>
       </c>
       <c r="E11" t="n">
-        <v>213.8828320620144</v>
+        <v>202.7225558406452</v>
       </c>
       <c r="F11" t="n">
-        <v>22.9918011399609</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="G11" t="n">
-        <v>22.9918011399609</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="H11" t="n">
-        <v>22.9918011399609</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="I11" t="n">
         <v>15.11856964902663</v>
@@ -5065,28 +5065,28 @@
         <v>755.9284824513317</v>
       </c>
       <c r="R11" t="n">
-        <v>755.9284824513317</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="S11" t="n">
-        <v>595.6648939061213</v>
+        <v>584.5046176847521</v>
       </c>
       <c r="T11" t="n">
-        <v>595.6648939061213</v>
+        <v>393.6135867626987</v>
       </c>
       <c r="U11" t="n">
-        <v>595.6648939061213</v>
+        <v>393.6135867626987</v>
       </c>
       <c r="V11" t="n">
-        <v>595.6648939061213</v>
+        <v>393.6135867626987</v>
       </c>
       <c r="W11" t="n">
-        <v>595.6648939061213</v>
+        <v>393.6135867626987</v>
       </c>
       <c r="X11" t="n">
-        <v>595.6648939061213</v>
+        <v>393.6135867626987</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.7738629840678</v>
+        <v>202.7225558406452</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32.02291413056741</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="C12" t="n">
-        <v>32.02291413056741</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="D12" t="n">
-        <v>32.02291413056741</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="E12" t="n">
-        <v>32.02291413056741</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="F12" t="n">
-        <v>32.02291413056741</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="G12" t="n">
-        <v>32.02291413056741</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="H12" t="n">
-        <v>32.02291413056741</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="I12" t="n">
         <v>15.11856964902663</v>
@@ -5126,46 +5126,46 @@
         <v>67.68184810466536</v>
       </c>
       <c r="L12" t="n">
-        <v>184.6822038548816</v>
+        <v>186.5241501463474</v>
       </c>
       <c r="M12" t="n">
-        <v>340.5729686373897</v>
+        <v>342.4149149288555</v>
       </c>
       <c r="N12" t="n">
-        <v>514.9983430119903</v>
+        <v>516.8402893034561</v>
       </c>
       <c r="O12" t="n">
-        <v>652.3436886031755</v>
+        <v>654.1856348946412</v>
       </c>
       <c r="P12" t="n">
-        <v>743.2423707763813</v>
+        <v>745.0843170678471</v>
       </c>
       <c r="Q12" t="n">
         <v>755.9284824513317</v>
       </c>
       <c r="R12" t="n">
-        <v>755.9284824513317</v>
+        <v>728.9145623287416</v>
       </c>
       <c r="S12" t="n">
-        <v>604.6960068967278</v>
+        <v>577.6820867741377</v>
       </c>
       <c r="T12" t="n">
-        <v>413.8049759746743</v>
+        <v>577.6820867741377</v>
       </c>
       <c r="U12" t="n">
-        <v>222.9139450526209</v>
+        <v>577.6820867741377</v>
       </c>
       <c r="V12" t="n">
-        <v>222.9139450526209</v>
+        <v>386.7910558520842</v>
       </c>
       <c r="W12" t="n">
-        <v>222.9139450526209</v>
+        <v>195.9000249300308</v>
       </c>
       <c r="X12" t="n">
-        <v>32.02291413056741</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="Y12" t="n">
-        <v>32.02291413056741</v>
+        <v>15.11856964902663</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>338.7683097643579</v>
+        <v>180.0697791112822</v>
       </c>
       <c r="C13" t="n">
-        <v>338.7683097643579</v>
+        <v>180.0697791112822</v>
       </c>
       <c r="D13" t="n">
-        <v>338.7683097643579</v>
+        <v>180.0697791112822</v>
       </c>
       <c r="E13" t="n">
-        <v>338.7683097643579</v>
+        <v>180.0697791112822</v>
       </c>
       <c r="F13" t="n">
-        <v>338.7683097643579</v>
+        <v>33.17983161337182</v>
       </c>
       <c r="G13" t="n">
-        <v>170.0817701630936</v>
+        <v>33.17983161337182</v>
       </c>
       <c r="H13" t="n">
-        <v>15.11856964902663</v>
+        <v>33.17983161337182</v>
       </c>
       <c r="I13" t="n">
-        <v>15.11856964902663</v>
+        <v>33.17983161337182</v>
       </c>
       <c r="J13" t="n">
         <v>15.11856964902663</v>
       </c>
       <c r="K13" t="n">
-        <v>15.11856964902663</v>
+        <v>107.0916914632739</v>
       </c>
       <c r="L13" t="n">
-        <v>188.338934936668</v>
+        <v>280.3120567509153</v>
       </c>
       <c r="M13" t="n">
-        <v>375.4312343433726</v>
+        <v>467.4043561576199</v>
       </c>
       <c r="N13" t="n">
-        <v>562.5235337500771</v>
+        <v>592.8738931178677</v>
       </c>
       <c r="O13" t="n">
-        <v>725.5781230835411</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="P13" t="n">
         <v>755.9284824513317</v>
@@ -5223,28 +5223,28 @@
         <v>752.7428718774426</v>
       </c>
       <c r="R13" t="n">
-        <v>618.6815517330282</v>
+        <v>752.7428718774426</v>
       </c>
       <c r="S13" t="n">
-        <v>618.6815517330282</v>
+        <v>752.7428718774426</v>
       </c>
       <c r="T13" t="n">
-        <v>618.6815517330282</v>
+        <v>752.7428718774426</v>
       </c>
       <c r="U13" t="n">
-        <v>529.6593406864114</v>
+        <v>561.8518409553891</v>
       </c>
       <c r="V13" t="n">
-        <v>529.6593406864114</v>
+        <v>370.9608100333356</v>
       </c>
       <c r="W13" t="n">
-        <v>529.6593406864114</v>
+        <v>180.0697791112822</v>
       </c>
       <c r="X13" t="n">
-        <v>529.6593406864114</v>
+        <v>180.0697791112822</v>
       </c>
       <c r="Y13" t="n">
-        <v>338.7683097643579</v>
+        <v>180.0697791112822</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>404.7738629840682</v>
+        <v>393.613586762699</v>
       </c>
       <c r="C14" t="n">
-        <v>404.7738629840682</v>
+        <v>393.613586762699</v>
       </c>
       <c r="D14" t="n">
-        <v>332.5520177556403</v>
+        <v>393.613586762699</v>
       </c>
       <c r="E14" t="n">
-        <v>332.5520177556403</v>
+        <v>202.7225558406454</v>
       </c>
       <c r="F14" t="n">
-        <v>332.5520177556403</v>
+        <v>202.7225558406454</v>
       </c>
       <c r="G14" t="n">
-        <v>332.5520177556403</v>
+        <v>202.7225558406454</v>
       </c>
       <c r="H14" t="n">
-        <v>141.6609868335867</v>
+        <v>15.11856964902664</v>
       </c>
       <c r="I14" t="n">
         <v>15.11856964902664</v>
@@ -5302,28 +5302,28 @@
         <v>755.9284824513321</v>
       </c>
       <c r="R14" t="n">
-        <v>755.9284824513321</v>
+        <v>744.768206229963</v>
       </c>
       <c r="S14" t="n">
-        <v>595.6648939061217</v>
+        <v>584.5046176847526</v>
       </c>
       <c r="T14" t="n">
-        <v>595.6648939061217</v>
+        <v>393.613586762699</v>
       </c>
       <c r="U14" t="n">
-        <v>595.6648939061217</v>
+        <v>393.613586762699</v>
       </c>
       <c r="V14" t="n">
-        <v>595.6648939061217</v>
+        <v>393.613586762699</v>
       </c>
       <c r="W14" t="n">
-        <v>595.6648939061217</v>
+        <v>393.613586762699</v>
       </c>
       <c r="X14" t="n">
-        <v>595.6648939061217</v>
+        <v>393.613586762699</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.7738629840682</v>
+        <v>393.613586762699</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>189.5715989301537</v>
+        <v>32.02291413056753</v>
       </c>
       <c r="C15" t="n">
-        <v>15.11856964902664</v>
+        <v>32.02291413056753</v>
       </c>
       <c r="D15" t="n">
-        <v>15.11856964902664</v>
+        <v>32.02291413056753</v>
       </c>
       <c r="E15" t="n">
-        <v>15.11856964902664</v>
+        <v>32.02291413056753</v>
       </c>
       <c r="F15" t="n">
         <v>15.11856964902664</v>
@@ -5357,16 +5357,16 @@
         <v>15.11856964902664</v>
       </c>
       <c r="J15" t="n">
-        <v>15.11856964902664</v>
+        <v>16.96051594049294</v>
       </c>
       <c r="K15" t="n">
-        <v>67.68184810466536</v>
+        <v>69.52379439613166</v>
       </c>
       <c r="L15" t="n">
-        <v>184.6822038548816</v>
+        <v>186.5241501463479</v>
       </c>
       <c r="M15" t="n">
-        <v>340.5729686373897</v>
+        <v>342.414914928856</v>
       </c>
       <c r="N15" t="n">
         <v>516.8402893034565</v>
@@ -5381,28 +5381,28 @@
         <v>755.9284824513321</v>
       </c>
       <c r="R15" t="n">
-        <v>728.914562328742</v>
+        <v>755.9284824513321</v>
       </c>
       <c r="S15" t="n">
-        <v>577.6820867741382</v>
+        <v>604.6960068967282</v>
       </c>
       <c r="T15" t="n">
-        <v>386.7910558520846</v>
+        <v>604.6960068967282</v>
       </c>
       <c r="U15" t="n">
-        <v>386.7910558520846</v>
+        <v>413.8049759746747</v>
       </c>
       <c r="V15" t="n">
-        <v>195.900024930031</v>
+        <v>222.9139450526211</v>
       </c>
       <c r="W15" t="n">
-        <v>195.900024930031</v>
+        <v>32.02291413056753</v>
       </c>
       <c r="X15" t="n">
-        <v>189.5715989301537</v>
+        <v>32.02291413056753</v>
       </c>
       <c r="Y15" t="n">
-        <v>189.5715989301537</v>
+        <v>32.02291413056753</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.25102505868179</v>
+        <v>46.00845896686792</v>
       </c>
       <c r="C16" t="n">
-        <v>55.25102505868179</v>
+        <v>46.00845896686792</v>
       </c>
       <c r="D16" t="n">
-        <v>38.62756539138677</v>
+        <v>46.00845896686792</v>
       </c>
       <c r="E16" t="n">
-        <v>38.62756539138677</v>
+        <v>46.00845896686792</v>
       </c>
       <c r="F16" t="n">
-        <v>38.62756539138677</v>
+        <v>46.00845896686792</v>
       </c>
       <c r="G16" t="n">
-        <v>38.62756539138677</v>
+        <v>15.11856964902664</v>
       </c>
       <c r="H16" t="n">
-        <v>38.62756539138677</v>
+        <v>15.11856964902664</v>
       </c>
       <c r="I16" t="n">
-        <v>38.62756539138677</v>
+        <v>15.11856964902664</v>
       </c>
       <c r="J16" t="n">
         <v>15.11856964902664</v>
       </c>
       <c r="K16" t="n">
-        <v>107.0916914632739</v>
+        <v>15.11856964902664</v>
       </c>
       <c r="L16" t="n">
-        <v>280.3120567509153</v>
+        <v>188.338934936668</v>
       </c>
       <c r="M16" t="n">
-        <v>467.40435615762</v>
+        <v>289.7809062145234</v>
       </c>
       <c r="N16" t="n">
-        <v>654.4966555643247</v>
+        <v>476.8732056212281</v>
       </c>
       <c r="O16" t="n">
-        <v>755.9284824513321</v>
+        <v>639.927794954692</v>
       </c>
       <c r="P16" t="n">
         <v>755.9284824513321</v>
@@ -5466,7 +5466,7 @@
         <v>618.6815517330286</v>
       </c>
       <c r="T16" t="n">
-        <v>427.7905208109751</v>
+        <v>618.6815517330286</v>
       </c>
       <c r="U16" t="n">
         <v>427.7905208109751</v>
@@ -5475,13 +5475,13 @@
         <v>236.8994898889215</v>
       </c>
       <c r="W16" t="n">
-        <v>236.8994898889215</v>
+        <v>46.00845896686792</v>
       </c>
       <c r="X16" t="n">
-        <v>236.8994898889215</v>
+        <v>46.00845896686792</v>
       </c>
       <c r="Y16" t="n">
-        <v>236.8994898889215</v>
+        <v>46.00845896686792</v>
       </c>
     </row>
     <row r="17">
@@ -5500,13 +5500,13 @@
         <v>393.6135867626985</v>
       </c>
       <c r="E17" t="n">
-        <v>202.7225558406451</v>
+        <v>393.6135867626985</v>
       </c>
       <c r="F17" t="n">
-        <v>141.6609868335867</v>
+        <v>332.5520177556401</v>
       </c>
       <c r="G17" t="n">
-        <v>141.6609868335867</v>
+        <v>332.5520177556401</v>
       </c>
       <c r="H17" t="n">
         <v>141.6609868335867</v>
@@ -5545,10 +5545,10 @@
         <v>584.5046176847519</v>
       </c>
       <c r="T17" t="n">
-        <v>584.5046176847519</v>
+        <v>393.6135867626985</v>
       </c>
       <c r="U17" t="n">
-        <v>584.5046176847519</v>
+        <v>393.6135867626985</v>
       </c>
       <c r="V17" t="n">
         <v>393.6135867626985</v>
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>152.6550266766124</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="C18" t="n">
-        <v>152.6550266766124</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="D18" t="n">
-        <v>152.6550266766124</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="E18" t="n">
-        <v>152.6550266766124</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="F18" t="n">
-        <v>152.6550266766124</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="G18" t="n">
         <v>15.11856964902663</v>
@@ -5600,19 +5600,19 @@
         <v>67.68184810466535</v>
       </c>
       <c r="L18" t="n">
-        <v>186.5241501463472</v>
+        <v>184.6822038548816</v>
       </c>
       <c r="M18" t="n">
-        <v>342.4149149288553</v>
+        <v>340.5729686373896</v>
       </c>
       <c r="N18" t="n">
-        <v>516.8402893034558</v>
+        <v>514.9983430119902</v>
       </c>
       <c r="O18" t="n">
-        <v>654.185634894641</v>
+        <v>652.3436886031753</v>
       </c>
       <c r="P18" t="n">
-        <v>745.0843170678469</v>
+        <v>743.2423707763812</v>
       </c>
       <c r="Q18" t="n">
         <v>755.9284824513314</v>
@@ -5624,22 +5624,22 @@
         <v>728.9145623287413</v>
       </c>
       <c r="T18" t="n">
-        <v>725.3281194427725</v>
+        <v>538.0235314066879</v>
       </c>
       <c r="U18" t="n">
-        <v>725.3281194427725</v>
+        <v>538.0235314066879</v>
       </c>
       <c r="V18" t="n">
-        <v>534.4370885207192</v>
+        <v>347.1325004846345</v>
       </c>
       <c r="W18" t="n">
-        <v>343.5460575986658</v>
+        <v>347.1325004846345</v>
       </c>
       <c r="X18" t="n">
-        <v>343.5460575986658</v>
+        <v>347.1325004846345</v>
       </c>
       <c r="Y18" t="n">
-        <v>152.6550266766124</v>
+        <v>183.3339066690947</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.19406954075686</v>
+        <v>504.5703352295398</v>
       </c>
       <c r="C19" t="n">
-        <v>15.11856964902663</v>
+        <v>335.6341523016329</v>
       </c>
       <c r="D19" t="n">
-        <v>15.11856964902663</v>
+        <v>185.5175128892971</v>
       </c>
       <c r="E19" t="n">
-        <v>15.11856964902663</v>
+        <v>185.5175128892971</v>
       </c>
       <c r="F19" t="n">
-        <v>15.11856964902663</v>
+        <v>38.62756539138675</v>
       </c>
       <c r="G19" t="n">
-        <v>15.11856964902663</v>
+        <v>38.62756539138675</v>
       </c>
       <c r="H19" t="n">
-        <v>15.11856964902663</v>
+        <v>38.62756539138675</v>
       </c>
       <c r="I19" t="n">
-        <v>15.11856964902663</v>
+        <v>38.62756539138675</v>
       </c>
       <c r="J19" t="n">
         <v>15.11856964902663</v>
       </c>
       <c r="K19" t="n">
-        <v>15.11856964902663</v>
+        <v>107.0916914632739</v>
       </c>
       <c r="L19" t="n">
-        <v>188.338934936668</v>
+        <v>264.0998565100418</v>
       </c>
       <c r="M19" t="n">
-        <v>289.7809062145228</v>
+        <v>451.1921559167464</v>
       </c>
       <c r="N19" t="n">
-        <v>476.8732056212274</v>
+        <v>638.284455323451</v>
       </c>
       <c r="O19" t="n">
         <v>639.9277949546913</v>
@@ -5697,28 +5697,28 @@
         <v>755.9284824513314</v>
       </c>
       <c r="R19" t="n">
-        <v>621.8671623069171</v>
+        <v>755.9284824513314</v>
       </c>
       <c r="S19" t="n">
-        <v>430.9761313848637</v>
+        <v>755.9284824513314</v>
       </c>
       <c r="T19" t="n">
-        <v>240.0851004628103</v>
+        <v>755.9284824513314</v>
       </c>
       <c r="U19" t="n">
-        <v>240.0851004628103</v>
+        <v>755.9284824513314</v>
       </c>
       <c r="V19" t="n">
-        <v>240.0851004628103</v>
+        <v>565.0374515292781</v>
       </c>
       <c r="W19" t="n">
-        <v>240.0851004628103</v>
+        <v>504.5703352295398</v>
       </c>
       <c r="X19" t="n">
-        <v>240.0851004628103</v>
+        <v>504.5703352295398</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.19406954075686</v>
+        <v>504.5703352295398</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.9006314931336</v>
+        <v>206.0096005710801</v>
       </c>
       <c r="C20" t="n">
         <v>206.0096005710801</v>
@@ -5740,7 +5740,7 @@
         <v>206.0096005710801</v>
       </c>
       <c r="F20" t="n">
-        <v>206.0096005710801</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="G20" t="n">
         <v>15.11856964902663</v>
@@ -5752,10 +5752,10 @@
         <v>15.11856964902663</v>
       </c>
       <c r="J20" t="n">
-        <v>21.5737628614981</v>
+        <v>21.57376286149808</v>
       </c>
       <c r="K20" t="n">
-        <v>81.98694239675353</v>
+        <v>81.98694239675352</v>
       </c>
       <c r="L20" t="n">
         <v>193.8365955669363</v>
@@ -5767,7 +5767,7 @@
         <v>513.2241045162871</v>
       </c>
       <c r="O20" t="n">
-        <v>654.0542022708984</v>
+        <v>654.0542022708983</v>
       </c>
       <c r="P20" t="n">
         <v>739.7484316260393</v>
@@ -5782,22 +5782,22 @@
         <v>744.7682062299625</v>
       </c>
       <c r="T20" t="n">
-        <v>744.7682062299625</v>
+        <v>587.791662415187</v>
       </c>
       <c r="U20" t="n">
-        <v>553.8771753079091</v>
+        <v>587.791662415187</v>
       </c>
       <c r="V20" t="n">
-        <v>553.8771753079091</v>
+        <v>587.791662415187</v>
       </c>
       <c r="W20" t="n">
-        <v>553.8771753079091</v>
+        <v>396.9006314931336</v>
       </c>
       <c r="X20" t="n">
-        <v>553.8771753079091</v>
+        <v>396.9006314931336</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9006314931336</v>
+        <v>206.0096005710801</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>336.1061569032687</v>
+        <v>374.1464206072247</v>
       </c>
       <c r="C21" t="n">
-        <v>161.6531276221417</v>
+        <v>199.6933913260977</v>
       </c>
       <c r="D21" t="n">
-        <v>161.6531276221417</v>
+        <v>50.75898166484646</v>
       </c>
       <c r="E21" t="n">
-        <v>161.6531276221417</v>
+        <v>50.75898166484646</v>
       </c>
       <c r="F21" t="n">
         <v>15.11856964902663</v>
@@ -5837,7 +5837,7 @@
         <v>67.68184810466536</v>
       </c>
       <c r="L21" t="n">
-        <v>186.5241501463474</v>
+        <v>184.6822038548816</v>
       </c>
       <c r="M21" t="n">
         <v>342.4149149288555</v>
@@ -5855,28 +5855,28 @@
         <v>755.9284824513317</v>
       </c>
       <c r="R21" t="n">
-        <v>728.9145623287416</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="S21" t="n">
-        <v>728.9145623287416</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="T21" t="n">
-        <v>538.0235314066881</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="U21" t="n">
-        <v>347.1325004846346</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="V21" t="n">
-        <v>347.1325004846346</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="W21" t="n">
-        <v>347.1325004846346</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="X21" t="n">
-        <v>336.1061569032687</v>
+        <v>565.0374515292782</v>
       </c>
       <c r="Y21" t="n">
-        <v>336.1061569032687</v>
+        <v>374.1464206072247</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.00845896686781</v>
+        <v>183.805109250291</v>
       </c>
       <c r="C22" t="n">
-        <v>46.00845896686781</v>
+        <v>183.805109250291</v>
       </c>
       <c r="D22" t="n">
-        <v>46.00845896686781</v>
+        <v>183.805109250291</v>
       </c>
       <c r="E22" t="n">
-        <v>46.00845896686781</v>
+        <v>183.805109250291</v>
       </c>
       <c r="F22" t="n">
-        <v>46.00845896686781</v>
+        <v>183.805109250291</v>
       </c>
       <c r="G22" t="n">
         <v>15.11856964902663</v>
@@ -5913,19 +5913,19 @@
         <v>15.11856964902663</v>
       </c>
       <c r="K22" t="n">
-        <v>90.31819604631596</v>
+        <v>107.0916914632739</v>
       </c>
       <c r="L22" t="n">
-        <v>102.6886068078184</v>
+        <v>280.3120567509153</v>
       </c>
       <c r="M22" t="n">
-        <v>289.780906214523</v>
+        <v>405.7815937111632</v>
       </c>
       <c r="N22" t="n">
-        <v>476.8732056212276</v>
+        <v>592.8738931178677</v>
       </c>
       <c r="O22" t="n">
-        <v>639.9277949546915</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="P22" t="n">
         <v>755.9284824513317</v>
@@ -5946,16 +5946,16 @@
         <v>236.8994898889213</v>
       </c>
       <c r="V22" t="n">
-        <v>46.00845896686781</v>
+        <v>236.8994898889213</v>
       </c>
       <c r="W22" t="n">
-        <v>46.00845896686781</v>
+        <v>183.805109250291</v>
       </c>
       <c r="X22" t="n">
-        <v>46.00845896686781</v>
+        <v>183.805109250291</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.00845896686781</v>
+        <v>183.805109250291</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>732.061832479767</v>
+        <v>412.0192011421601</v>
       </c>
       <c r="C23" t="n">
-        <v>732.061832479767</v>
+        <v>412.0192011421601</v>
       </c>
       <c r="D23" t="n">
-        <v>732.061832479767</v>
+        <v>412.0192011421601</v>
       </c>
       <c r="E23" t="n">
-        <v>350.2797706356601</v>
+        <v>412.0192011421601</v>
       </c>
       <c r="F23" t="n">
-        <v>350.2797706356601</v>
+        <v>412.0192011421601</v>
       </c>
       <c r="G23" t="n">
-        <v>350.2797706356601</v>
+        <v>30.23713929805326</v>
       </c>
       <c r="H23" t="n">
         <v>30.23713929805326</v>
@@ -5989,22 +5989,22 @@
         <v>30.23713929805326</v>
       </c>
       <c r="J23" t="n">
-        <v>36.6923325105247</v>
+        <v>204.0979815308777</v>
       </c>
       <c r="K23" t="n">
-        <v>97.10551204578016</v>
+        <v>394.369083035981</v>
       </c>
       <c r="L23" t="n">
-        <v>217.7283667478956</v>
+        <v>506.218736206164</v>
       </c>
       <c r="M23" t="n">
-        <v>373.8520944647591</v>
+        <v>662.3424639230275</v>
       </c>
       <c r="N23" t="n">
-        <v>537.1158756972466</v>
+        <v>825.6062451555149</v>
       </c>
       <c r="O23" t="n">
-        <v>911.3004745106557</v>
+        <v>1199.790843968924</v>
       </c>
       <c r="P23" t="n">
         <v>1285.485073324065</v>
@@ -6013,28 +6013,28 @@
         <v>1511.856964902663</v>
       </c>
       <c r="R23" t="n">
-        <v>1500.696688681294</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="S23" t="n">
-        <v>1500.696688681294</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="T23" t="n">
-        <v>1285.119096518439</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="U23" t="n">
-        <v>1285.119096518439</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="V23" t="n">
-        <v>1285.119096518439</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="W23" t="n">
-        <v>932.3504412483248</v>
+        <v>1175.583324830374</v>
       </c>
       <c r="X23" t="n">
-        <v>932.3504412483248</v>
+        <v>1175.583324830374</v>
       </c>
       <c r="Y23" t="n">
-        <v>732.061832479767</v>
+        <v>793.8012629862669</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>501.4640806122214</v>
+        <v>708.5743262393876</v>
       </c>
       <c r="C24" t="n">
-        <v>327.0110513310944</v>
+        <v>534.1212969582606</v>
       </c>
       <c r="D24" t="n">
-        <v>327.0110513310944</v>
+        <v>385.1868872970093</v>
       </c>
       <c r="E24" t="n">
-        <v>167.773596325639</v>
+        <v>225.9494322915538</v>
       </c>
       <c r="F24" t="n">
-        <v>167.773596325639</v>
+        <v>79.41487431843881</v>
       </c>
       <c r="G24" t="n">
-        <v>30.23713929805326</v>
+        <v>79.41487431843881</v>
       </c>
       <c r="H24" t="n">
-        <v>30.23713929805326</v>
+        <v>79.41487431843881</v>
       </c>
       <c r="I24" t="n">
         <v>30.23713929805326</v>
       </c>
       <c r="J24" t="n">
-        <v>30.23713929805326</v>
+        <v>140.0940861829126</v>
       </c>
       <c r="K24" t="n">
-        <v>82.80041775369199</v>
+        <v>334.1898453487688</v>
       </c>
       <c r="L24" t="n">
-        <v>456.9850165671011</v>
+        <v>451.190201098985</v>
       </c>
       <c r="M24" t="n">
-        <v>815.0574807399835</v>
+        <v>607.0809658814931</v>
       </c>
       <c r="N24" t="n">
-        <v>989.482855114584</v>
+        <v>781.5063402560936</v>
       </c>
       <c r="O24" t="n">
-        <v>1126.828200705769</v>
+        <v>918.8516858472788</v>
       </c>
       <c r="P24" t="n">
-        <v>1501.012799519178</v>
+        <v>1293.036284660688</v>
       </c>
       <c r="Q24" t="n">
         <v>1511.856964902663</v>
       </c>
       <c r="R24" t="n">
-        <v>1511.856964902663</v>
+        <v>1484.843044780073</v>
       </c>
       <c r="S24" t="n">
-        <v>1360.624489348059</v>
+        <v>1484.843044780073</v>
       </c>
       <c r="T24" t="n">
-        <v>1172.612730445358</v>
+        <v>1292.401462229942</v>
       </c>
       <c r="U24" t="n">
-        <v>944.467689049497</v>
+        <v>1292.401462229942</v>
       </c>
       <c r="V24" t="n">
-        <v>709.3155808177543</v>
+        <v>1292.401462229942</v>
       </c>
       <c r="W24" t="n">
-        <v>709.3155808177543</v>
+        <v>1292.401462229942</v>
       </c>
       <c r="X24" t="n">
-        <v>501.4640806122214</v>
+        <v>1084.54996202441</v>
       </c>
       <c r="Y24" t="n">
-        <v>501.4640806122214</v>
+        <v>876.7896632594557</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.353778710389</v>
+        <v>377.3958751557447</v>
       </c>
       <c r="C25" t="n">
-        <v>180.353778710389</v>
+        <v>377.3958751557447</v>
       </c>
       <c r="D25" t="n">
-        <v>30.23713929805326</v>
+        <v>377.3958751557447</v>
       </c>
       <c r="E25" t="n">
-        <v>30.23713929805326</v>
+        <v>377.3958751557447</v>
       </c>
       <c r="F25" t="n">
-        <v>30.23713929805326</v>
+        <v>377.3958751557447</v>
       </c>
       <c r="G25" t="n">
-        <v>30.23713929805326</v>
+        <v>208.7093355544803</v>
       </c>
       <c r="H25" t="n">
-        <v>30.23713929805326</v>
+        <v>53.74613504041338</v>
       </c>
       <c r="I25" t="n">
-        <v>30.23713929805326</v>
+        <v>53.74613504041338</v>
       </c>
       <c r="J25" t="n">
         <v>30.23713929805326</v>
@@ -6171,28 +6171,28 @@
         <v>958.1966111099571</v>
       </c>
       <c r="R25" t="n">
-        <v>824.1352909655427</v>
+        <v>958.1966111099571</v>
       </c>
       <c r="S25" t="n">
-        <v>824.1352909655427</v>
+        <v>749.3674668916917</v>
       </c>
       <c r="T25" t="n">
-        <v>598.1655810013217</v>
+        <v>749.3674668916917</v>
       </c>
       <c r="U25" t="n">
-        <v>309.0090576010025</v>
+        <v>460.2109434913725</v>
       </c>
       <c r="V25" t="n">
-        <v>309.0090576010025</v>
+        <v>377.3958751557447</v>
       </c>
       <c r="W25" t="n">
-        <v>180.353778710389</v>
+        <v>377.3958751557447</v>
       </c>
       <c r="X25" t="n">
-        <v>180.353778710389</v>
+        <v>377.3958751557447</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.353778710389</v>
+        <v>377.3958751557447</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>152.3637611600642</v>
+        <v>412.0192011421601</v>
       </c>
       <c r="C26" t="n">
-        <v>152.3637611600642</v>
+        <v>412.0192011421601</v>
       </c>
       <c r="D26" t="n">
-        <v>152.3637611600642</v>
+        <v>412.0192011421601</v>
       </c>
       <c r="E26" t="n">
-        <v>152.3637611600642</v>
+        <v>412.0192011421601</v>
       </c>
       <c r="F26" t="n">
-        <v>30.23713929805326</v>
+        <v>412.0192011421601</v>
       </c>
       <c r="G26" t="n">
         <v>30.23713929805326</v>
@@ -6226,52 +6226,52 @@
         <v>30.23713929805326</v>
       </c>
       <c r="J26" t="n">
-        <v>36.6923325105247</v>
+        <v>204.0979815308777</v>
       </c>
       <c r="K26" t="n">
-        <v>97.10551204578016</v>
+        <v>264.5111610661332</v>
       </c>
       <c r="L26" t="n">
-        <v>471.2901108591892</v>
+        <v>376.3608142363161</v>
       </c>
       <c r="M26" t="n">
-        <v>627.4138385760527</v>
+        <v>532.4845419531797</v>
       </c>
       <c r="N26" t="n">
-        <v>790.6776198085402</v>
+        <v>695.7483231856671</v>
       </c>
       <c r="O26" t="n">
-        <v>1164.862218621949</v>
+        <v>1069.932921999076</v>
       </c>
       <c r="P26" t="n">
-        <v>1285.485073324065</v>
+        <v>1444.117520812486</v>
       </c>
       <c r="Q26" t="n">
         <v>1511.856964902663</v>
       </c>
       <c r="R26" t="n">
-        <v>1500.696688681294</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="S26" t="n">
-        <v>1500.696688681294</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="T26" t="n">
-        <v>1500.696688681294</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="U26" t="n">
-        <v>1246.990772191848</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="V26" t="n">
-        <v>915.9278848482778</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="W26" t="n">
-        <v>915.9278848482778</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="X26" t="n">
-        <v>915.9278848482778</v>
+        <v>1138.391206641583</v>
       </c>
       <c r="Y26" t="n">
-        <v>534.145823004171</v>
+        <v>756.6091447974763</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>189.4745943035088</v>
+        <v>651.1709226406646</v>
       </c>
       <c r="C27" t="n">
-        <v>189.4745943035088</v>
+        <v>476.7178933595376</v>
       </c>
       <c r="D27" t="n">
-        <v>189.4745943035088</v>
+        <v>327.7834836982863</v>
       </c>
       <c r="E27" t="n">
-        <v>30.23713929805326</v>
+        <v>327.7834836982863</v>
       </c>
       <c r="F27" t="n">
-        <v>30.23713929805326</v>
+        <v>181.2489257251713</v>
       </c>
       <c r="G27" t="n">
-        <v>30.23713929805326</v>
+        <v>181.2489257251713</v>
       </c>
       <c r="H27" t="n">
-        <v>30.23713929805326</v>
+        <v>79.41487431843881</v>
       </c>
       <c r="I27" t="n">
         <v>30.23713929805326</v>
       </c>
       <c r="J27" t="n">
-        <v>30.23713929805326</v>
+        <v>140.0940861829126</v>
       </c>
       <c r="K27" t="n">
-        <v>82.80041775369199</v>
+        <v>380.6365087667479</v>
       </c>
       <c r="L27" t="n">
-        <v>456.9850165671011</v>
+        <v>497.6368645169641</v>
       </c>
       <c r="M27" t="n">
-        <v>612.8757813496092</v>
+        <v>653.5276292994722</v>
       </c>
       <c r="N27" t="n">
-        <v>787.3011557242097</v>
+        <v>827.9530036740728</v>
       </c>
       <c r="O27" t="n">
-        <v>1161.485754537619</v>
+        <v>1202.137602487482</v>
       </c>
       <c r="P27" t="n">
         <v>1293.036284660688</v>
@@ -6338,19 +6338,19 @@
         <v>1163.25203747097</v>
       </c>
       <c r="U27" t="n">
-        <v>935.1069960751092</v>
+        <v>1163.25203747097</v>
       </c>
       <c r="V27" t="n">
-        <v>699.9548878433666</v>
+        <v>928.0999292392278</v>
       </c>
       <c r="W27" t="n">
-        <v>445.7175311151649</v>
+        <v>673.8625725110262</v>
       </c>
       <c r="X27" t="n">
-        <v>445.7175311151649</v>
+        <v>673.8625725110262</v>
       </c>
       <c r="Y27" t="n">
-        <v>237.957232350211</v>
+        <v>651.1709226406646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.23713929805326</v>
+        <v>201.6592286228065</v>
       </c>
       <c r="C28" t="n">
-        <v>30.23713929805326</v>
+        <v>201.6592286228065</v>
       </c>
       <c r="D28" t="n">
-        <v>30.23713929805326</v>
+        <v>201.6592286228065</v>
       </c>
       <c r="E28" t="n">
-        <v>30.23713929805326</v>
+        <v>53.74613504041338</v>
       </c>
       <c r="F28" t="n">
-        <v>30.23713929805326</v>
+        <v>53.74613504041338</v>
       </c>
       <c r="G28" t="n">
-        <v>30.23713929805326</v>
+        <v>53.74613504041338</v>
       </c>
       <c r="H28" t="n">
-        <v>30.23713929805326</v>
+        <v>53.74613504041338</v>
       </c>
       <c r="I28" t="n">
-        <v>30.23713929805326</v>
+        <v>53.74613504041338</v>
       </c>
       <c r="J28" t="n">
         <v>30.23713929805326</v>
@@ -6405,31 +6405,31 @@
         <v>961.3822216838462</v>
       </c>
       <c r="Q28" t="n">
-        <v>958.1966111099571</v>
+        <v>961.3822216838462</v>
       </c>
       <c r="R28" t="n">
-        <v>824.1352909655427</v>
+        <v>961.3822216838462</v>
       </c>
       <c r="S28" t="n">
-        <v>738.8808883661785</v>
+        <v>752.5530774655808</v>
       </c>
       <c r="T28" t="n">
-        <v>512.9111784019575</v>
+        <v>752.5530774655808</v>
       </c>
       <c r="U28" t="n">
-        <v>512.9111784019575</v>
+        <v>463.3965540652616</v>
       </c>
       <c r="V28" t="n">
-        <v>258.2266901960706</v>
+        <v>208.7120658593747</v>
       </c>
       <c r="W28" t="n">
-        <v>258.2266901960706</v>
+        <v>208.7120658593747</v>
       </c>
       <c r="X28" t="n">
-        <v>30.23713929805326</v>
+        <v>208.7120658593747</v>
       </c>
       <c r="Y28" t="n">
-        <v>30.23713929805326</v>
+        <v>208.7120658593747</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>414.3859812325364</v>
+        <v>896.8273169334707</v>
       </c>
       <c r="C29" t="n">
-        <v>412.0192011421601</v>
+        <v>896.8273169334707</v>
       </c>
       <c r="D29" t="n">
-        <v>412.0192011421601</v>
+        <v>538.5616183267202</v>
       </c>
       <c r="E29" t="n">
-        <v>412.0192011421601</v>
+        <v>538.5616183267202</v>
       </c>
       <c r="F29" t="n">
-        <v>30.23713929805326</v>
+        <v>538.5616183267202</v>
       </c>
       <c r="G29" t="n">
-        <v>30.23713929805326</v>
+        <v>156.7795564826134</v>
       </c>
       <c r="H29" t="n">
-        <v>30.23713929805326</v>
+        <v>156.7795564826134</v>
       </c>
       <c r="I29" t="n">
         <v>30.23713929805326</v>
       </c>
       <c r="J29" t="n">
-        <v>36.6923325105247</v>
+        <v>36.69233251052471</v>
       </c>
       <c r="K29" t="n">
-        <v>357.5196081083125</v>
+        <v>198.7418954173116</v>
       </c>
       <c r="L29" t="n">
-        <v>731.7042069217216</v>
+        <v>310.5915485874946</v>
       </c>
       <c r="M29" t="n">
-        <v>1105.888805735131</v>
+        <v>684.7761474009037</v>
       </c>
       <c r="N29" t="n">
-        <v>1269.152586967618</v>
+        <v>1058.960746214313</v>
       </c>
       <c r="O29" t="n">
-        <v>1409.982684722229</v>
+        <v>1199.790843968924</v>
       </c>
       <c r="P29" t="n">
-        <v>1495.67691407737</v>
+        <v>1285.485073324065</v>
       </c>
       <c r="Q29" t="n">
         <v>1511.856964902663</v>
@@ -6490,25 +6490,25 @@
         <v>1500.696688681294</v>
       </c>
       <c r="S29" t="n">
-        <v>1500.696688681294</v>
+        <v>1340.433100136083</v>
       </c>
       <c r="T29" t="n">
-        <v>1500.696688681294</v>
+        <v>1340.433100136083</v>
       </c>
       <c r="U29" t="n">
-        <v>1500.696688681294</v>
+        <v>1340.433100136083</v>
       </c>
       <c r="V29" t="n">
-        <v>1169.633801337723</v>
+        <v>1340.433100136083</v>
       </c>
       <c r="W29" t="n">
-        <v>1169.633801337723</v>
+        <v>1340.433100136083</v>
       </c>
       <c r="X29" t="n">
-        <v>796.1680430766432</v>
+        <v>966.9673418750035</v>
       </c>
       <c r="Y29" t="n">
-        <v>796.1680430766432</v>
+        <v>966.9673418750035</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42.72797520755302</v>
+        <v>810.4083776461201</v>
       </c>
       <c r="C30" t="n">
-        <v>42.72797520755302</v>
+        <v>635.9553483649931</v>
       </c>
       <c r="D30" t="n">
-        <v>42.72797520755302</v>
+        <v>487.0209387037418</v>
       </c>
       <c r="E30" t="n">
-        <v>42.72797520755302</v>
+        <v>327.7834836982863</v>
       </c>
       <c r="F30" t="n">
-        <v>42.72797520755302</v>
+        <v>181.2489257251713</v>
       </c>
       <c r="G30" t="n">
-        <v>30.23713929805326</v>
+        <v>181.2489257251713</v>
       </c>
       <c r="H30" t="n">
-        <v>30.23713929805326</v>
+        <v>79.41487431843881</v>
       </c>
       <c r="I30" t="n">
         <v>30.23713929805326</v>
       </c>
       <c r="J30" t="n">
-        <v>30.23713929805326</v>
+        <v>140.0940861829126</v>
       </c>
       <c r="K30" t="n">
-        <v>82.80041775369199</v>
+        <v>192.6573646385514</v>
       </c>
       <c r="L30" t="n">
-        <v>199.8007735039082</v>
+        <v>309.6577203887676</v>
       </c>
       <c r="M30" t="n">
-        <v>573.9853723173173</v>
+        <v>465.5484851712757</v>
       </c>
       <c r="N30" t="n">
-        <v>948.1699711307265</v>
+        <v>639.9738595458762</v>
       </c>
       <c r="O30" t="n">
-        <v>1085.515316721912</v>
+        <v>1014.158458359285</v>
       </c>
       <c r="P30" t="n">
         <v>1293.036284660688</v>
@@ -6566,28 +6566,28 @@
         <v>1511.856964902663</v>
       </c>
       <c r="R30" t="n">
-        <v>1484.843044780073</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="S30" t="n">
-        <v>1333.610569225469</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="T30" t="n">
-        <v>1136.23811734838</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="U30" t="n">
-        <v>908.0930759525193</v>
+        <v>1283.711923506802</v>
       </c>
       <c r="V30" t="n">
-        <v>672.9409677207766</v>
+        <v>1283.711923506802</v>
       </c>
       <c r="W30" t="n">
-        <v>418.703610992575</v>
+        <v>1226.020176616607</v>
       </c>
       <c r="X30" t="n">
-        <v>418.703610992575</v>
+        <v>1018.168676411074</v>
       </c>
       <c r="Y30" t="n">
-        <v>210.943312227621</v>
+        <v>810.4083776461201</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>436.8432924909267</v>
+        <v>185.2003398121202</v>
       </c>
       <c r="C31" t="n">
-        <v>267.9071095630198</v>
+        <v>185.2003398121202</v>
       </c>
       <c r="D31" t="n">
-        <v>267.9071095630198</v>
+        <v>185.2003398121202</v>
       </c>
       <c r="E31" t="n">
-        <v>267.9071095630198</v>
+        <v>185.2003398121202</v>
       </c>
       <c r="F31" t="n">
-        <v>121.0171620651095</v>
+        <v>185.2003398121202</v>
       </c>
       <c r="G31" t="n">
-        <v>30.23713929805326</v>
+        <v>185.2003398121202</v>
       </c>
       <c r="H31" t="n">
         <v>30.23713929805326</v>
@@ -6645,28 +6645,28 @@
         <v>961.3822216838462</v>
       </c>
       <c r="R31" t="n">
-        <v>827.3209015394318</v>
+        <v>961.3822216838462</v>
       </c>
       <c r="S31" t="n">
-        <v>618.4917573211665</v>
+        <v>961.3822216838462</v>
       </c>
       <c r="T31" t="n">
-        <v>618.4917573211665</v>
+        <v>961.3822216838462</v>
       </c>
       <c r="U31" t="n">
-        <v>618.4917573211665</v>
+        <v>729.3019980549676</v>
       </c>
       <c r="V31" t="n">
-        <v>618.4917573211665</v>
+        <v>474.6175098490808</v>
       </c>
       <c r="W31" t="n">
-        <v>618.4917573211665</v>
+        <v>185.2003398121202</v>
       </c>
       <c r="X31" t="n">
-        <v>618.4917573211665</v>
+        <v>185.2003398121202</v>
       </c>
       <c r="Y31" t="n">
-        <v>618.4917573211665</v>
+        <v>185.2003398121202</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>780.9817180825718</v>
+        <v>737.13256499308</v>
       </c>
       <c r="C32" t="n">
-        <v>412.0192011421601</v>
+        <v>388.5028379048038</v>
       </c>
       <c r="D32" t="n">
-        <v>412.0192011421601</v>
+        <v>30.23713929805326</v>
       </c>
       <c r="E32" t="n">
         <v>30.23713929805326</v>
@@ -6700,25 +6700,25 @@
         <v>30.23713929805326</v>
       </c>
       <c r="J32" t="n">
-        <v>36.6923325105247</v>
+        <v>204.0979815308777</v>
       </c>
       <c r="K32" t="n">
-        <v>97.10551204578016</v>
+        <v>264.5111610661332</v>
       </c>
       <c r="L32" t="n">
-        <v>216.9993899202795</v>
+        <v>376.3608142363161</v>
       </c>
       <c r="M32" t="n">
-        <v>373.123117637143</v>
+        <v>532.4845419531797</v>
       </c>
       <c r="N32" t="n">
-        <v>747.3077164505521</v>
+        <v>695.7483231856671</v>
       </c>
       <c r="O32" t="n">
-        <v>1121.492315263961</v>
+        <v>911.3004745106559</v>
       </c>
       <c r="P32" t="n">
-        <v>1495.67691407737</v>
+        <v>1285.485073324065</v>
       </c>
       <c r="Q32" t="n">
         <v>1511.856964902663</v>
@@ -6733,19 +6733,19 @@
         <v>1500.696688681294</v>
       </c>
       <c r="U32" t="n">
-        <v>1246.990772191848</v>
+        <v>1500.696688681294</v>
       </c>
       <c r="V32" t="n">
-        <v>1133.750373352686</v>
+        <v>1500.696688681294</v>
       </c>
       <c r="W32" t="n">
-        <v>780.9817180825718</v>
+        <v>1500.696688681294</v>
       </c>
       <c r="X32" t="n">
-        <v>780.9817180825718</v>
+        <v>1500.696688681294</v>
       </c>
       <c r="Y32" t="n">
-        <v>780.9817180825718</v>
+        <v>1118.914626837187</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>204.6901685791803</v>
+        <v>562.0397682662726</v>
       </c>
       <c r="C33" t="n">
-        <v>30.23713929805326</v>
+        <v>387.5867389851456</v>
       </c>
       <c r="D33" t="n">
-        <v>30.23713929805326</v>
+        <v>238.6523293238943</v>
       </c>
       <c r="E33" t="n">
-        <v>30.23713929805326</v>
+        <v>79.41487431843881</v>
       </c>
       <c r="F33" t="n">
-        <v>30.23713929805326</v>
+        <v>79.41487431843881</v>
       </c>
       <c r="G33" t="n">
-        <v>30.23713929805326</v>
+        <v>79.41487431843881</v>
       </c>
       <c r="H33" t="n">
-        <v>30.23713929805326</v>
+        <v>79.41487431843881</v>
       </c>
       <c r="I33" t="n">
         <v>30.23713929805326</v>
       </c>
       <c r="J33" t="n">
-        <v>30.23713929805326</v>
+        <v>140.0940861829126</v>
       </c>
       <c r="K33" t="n">
-        <v>344.6210023961448</v>
+        <v>192.6573646385514</v>
       </c>
       <c r="L33" t="n">
-        <v>461.621358146361</v>
+        <v>566.8419634519605</v>
       </c>
       <c r="M33" t="n">
-        <v>617.5121229288691</v>
+        <v>722.7327282344686</v>
       </c>
       <c r="N33" t="n">
-        <v>791.9374973034696</v>
+        <v>897.1581026090691</v>
       </c>
       <c r="O33" t="n">
-        <v>929.2828428946548</v>
+        <v>1034.503448200254</v>
       </c>
       <c r="P33" t="n">
-        <v>1303.467441708064</v>
+        <v>1293.036284660688</v>
       </c>
       <c r="Q33" t="n">
         <v>1511.856964902663</v>
       </c>
       <c r="R33" t="n">
-        <v>1484.843044780073</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="S33" t="n">
-        <v>1484.843044780073</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="T33" t="n">
-        <v>1484.843044780073</v>
+        <v>1511.856964902663</v>
       </c>
       <c r="U33" t="n">
-        <v>1256.698003384212</v>
+        <v>1283.711923506802</v>
       </c>
       <c r="V33" t="n">
-        <v>1042.754661297937</v>
+        <v>1192.252760779496</v>
       </c>
       <c r="W33" t="n">
-        <v>788.517304569735</v>
+        <v>938.0154040512946</v>
       </c>
       <c r="X33" t="n">
-        <v>580.6658043642021</v>
+        <v>938.0154040512946</v>
       </c>
       <c r="Y33" t="n">
-        <v>372.9055055992483</v>
+        <v>730.2551052863407</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.23713929805326</v>
+        <v>651.1941311494272</v>
       </c>
       <c r="C34" t="n">
-        <v>30.23713929805326</v>
+        <v>651.1941311494272</v>
       </c>
       <c r="D34" t="n">
-        <v>30.23713929805326</v>
+        <v>651.1941311494272</v>
       </c>
       <c r="E34" t="n">
-        <v>30.23713929805326</v>
+        <v>651.1941311494272</v>
       </c>
       <c r="F34" t="n">
-        <v>30.23713929805326</v>
+        <v>504.3041836515168</v>
       </c>
       <c r="G34" t="n">
-        <v>30.23713929805326</v>
+        <v>335.6176440502525</v>
       </c>
       <c r="H34" t="n">
-        <v>30.23713929805326</v>
+        <v>180.6544435361856</v>
       </c>
       <c r="I34" t="n">
-        <v>30.23713929805326</v>
+        <v>53.74613504041338</v>
       </c>
       <c r="J34" t="n">
         <v>30.23713929805326</v>
@@ -6882,28 +6882,28 @@
         <v>961.3822216838462</v>
       </c>
       <c r="R34" t="n">
-        <v>827.3209015394318</v>
+        <v>961.3822216838462</v>
       </c>
       <c r="S34" t="n">
-        <v>827.3209015394318</v>
+        <v>961.3822216838462</v>
       </c>
       <c r="T34" t="n">
-        <v>827.3209015394318</v>
+        <v>961.3822216838462</v>
       </c>
       <c r="U34" t="n">
-        <v>538.1643781391126</v>
+        <v>961.3822216838462</v>
       </c>
       <c r="V34" t="n">
-        <v>283.4798899332258</v>
+        <v>961.3822216838462</v>
       </c>
       <c r="W34" t="n">
-        <v>251.0297184415834</v>
+        <v>961.3822216838462</v>
       </c>
       <c r="X34" t="n">
-        <v>251.0297184415834</v>
+        <v>961.3822216838462</v>
       </c>
       <c r="Y34" t="n">
-        <v>30.23713929805326</v>
+        <v>740.589642540316</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.1464206072246</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="C35" t="n">
-        <v>374.1464206072246</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="D35" t="n">
-        <v>374.1464206072246</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="E35" t="n">
-        <v>374.1464206072246</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="F35" t="n">
-        <v>183.2553896851712</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="G35" t="n">
         <v>15.11856964902663</v>
@@ -6952,37 +6952,37 @@
         <v>513.2241045162874</v>
       </c>
       <c r="O35" t="n">
-        <v>654.0542022708986</v>
+        <v>654.0542022708981</v>
       </c>
       <c r="P35" t="n">
-        <v>739.7484316260396</v>
+        <v>739.7484316260392</v>
       </c>
       <c r="Q35" t="n">
         <v>755.9284824513315</v>
       </c>
       <c r="R35" t="n">
-        <v>755.9284824513315</v>
+        <v>744.7682062299624</v>
       </c>
       <c r="S35" t="n">
-        <v>755.9284824513315</v>
+        <v>587.7916624151869</v>
       </c>
       <c r="T35" t="n">
-        <v>755.9284824513315</v>
+        <v>396.9006314931335</v>
       </c>
       <c r="U35" t="n">
-        <v>565.0374515292781</v>
+        <v>206.0096005710801</v>
       </c>
       <c r="V35" t="n">
-        <v>374.1464206072246</v>
+        <v>206.0096005710801</v>
       </c>
       <c r="W35" t="n">
-        <v>374.1464206072246</v>
+        <v>206.0096005710801</v>
       </c>
       <c r="X35" t="n">
-        <v>374.1464206072246</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="Y35" t="n">
-        <v>374.1464206072246</v>
+        <v>15.11856964902663</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15.11856964902663</v>
+        <v>195.9000249300307</v>
       </c>
       <c r="C36" t="n">
-        <v>15.11856964902663</v>
+        <v>195.9000249300307</v>
       </c>
       <c r="D36" t="n">
-        <v>15.11856964902663</v>
+        <v>195.9000249300307</v>
       </c>
       <c r="E36" t="n">
-        <v>15.11856964902663</v>
+        <v>36.66256992457519</v>
       </c>
       <c r="F36" t="n">
-        <v>15.11856964902663</v>
+        <v>36.66256992457519</v>
       </c>
       <c r="G36" t="n">
         <v>15.11856964902663</v>
@@ -7025,10 +7025,10 @@
         <v>184.6822038548816</v>
       </c>
       <c r="M36" t="n">
-        <v>342.4149149288554</v>
+        <v>340.5729686373896</v>
       </c>
       <c r="N36" t="n">
-        <v>516.840289303456</v>
+        <v>514.9983430119902</v>
       </c>
       <c r="O36" t="n">
         <v>654.1856348946411</v>
@@ -7040,28 +7040,28 @@
         <v>755.9284824513315</v>
       </c>
       <c r="R36" t="n">
-        <v>755.9284824513315</v>
+        <v>728.9145623287415</v>
       </c>
       <c r="S36" t="n">
-        <v>755.9284824513315</v>
+        <v>577.6820867741376</v>
       </c>
       <c r="T36" t="n">
-        <v>565.0374515292781</v>
+        <v>577.6820867741376</v>
       </c>
       <c r="U36" t="n">
-        <v>374.1464206072246</v>
+        <v>577.6820867741376</v>
       </c>
       <c r="V36" t="n">
-        <v>374.1464206072246</v>
+        <v>386.7910558520841</v>
       </c>
       <c r="W36" t="n">
-        <v>374.1464206072246</v>
+        <v>195.9000249300307</v>
       </c>
       <c r="X36" t="n">
-        <v>374.1464206072246</v>
+        <v>195.9000249300307</v>
       </c>
       <c r="Y36" t="n">
-        <v>183.3339066690947</v>
+        <v>195.9000249300307</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.5175128892971</v>
+        <v>38.62756539138675</v>
       </c>
       <c r="C37" t="n">
-        <v>185.5175128892971</v>
+        <v>38.62756539138675</v>
       </c>
       <c r="D37" t="n">
-        <v>185.5175128892971</v>
+        <v>38.62756539138675</v>
       </c>
       <c r="E37" t="n">
-        <v>185.5175128892971</v>
+        <v>38.62756539138675</v>
       </c>
       <c r="F37" t="n">
         <v>38.62756539138675</v>
@@ -7104,7 +7104,7 @@
         <v>280.3120567509153</v>
       </c>
       <c r="M37" t="n">
-        <v>405.7815937111631</v>
+        <v>467.4043561576199</v>
       </c>
       <c r="N37" t="n">
         <v>592.8738931178676</v>
@@ -7116,31 +7116,31 @@
         <v>755.9284824513315</v>
       </c>
       <c r="Q37" t="n">
-        <v>755.9284824513315</v>
+        <v>752.7428718774424</v>
       </c>
       <c r="R37" t="n">
-        <v>755.9284824513315</v>
+        <v>618.6815517330281</v>
       </c>
       <c r="S37" t="n">
-        <v>755.9284824513315</v>
+        <v>427.7905208109746</v>
       </c>
       <c r="T37" t="n">
-        <v>748.9480395636438</v>
+        <v>427.7905208109746</v>
       </c>
       <c r="U37" t="n">
-        <v>558.0570086415903</v>
+        <v>236.8994898889212</v>
       </c>
       <c r="V37" t="n">
-        <v>558.0570086415903</v>
+        <v>236.8994898889212</v>
       </c>
       <c r="W37" t="n">
-        <v>558.0570086415903</v>
+        <v>46.00845896686775</v>
       </c>
       <c r="X37" t="n">
-        <v>367.1659777195368</v>
+        <v>46.00845896686775</v>
       </c>
       <c r="Y37" t="n">
-        <v>367.1659777195368</v>
+        <v>46.00845896686775</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.1464206072246</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="C38" t="n">
-        <v>374.1464206072246</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="D38" t="n">
-        <v>374.1464206072246</v>
+        <v>553.8771753079091</v>
       </c>
       <c r="E38" t="n">
-        <v>374.1464206072246</v>
+        <v>553.8771753079091</v>
       </c>
       <c r="F38" t="n">
-        <v>374.1464206072246</v>
+        <v>362.9861443858556</v>
       </c>
       <c r="G38" t="n">
-        <v>332.5520177556402</v>
+        <v>172.0951134638021</v>
       </c>
       <c r="H38" t="n">
-        <v>141.6609868335867</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="I38" t="n">
         <v>15.11856964902663</v>
       </c>
       <c r="J38" t="n">
-        <v>21.5737628614976</v>
+        <v>21.57376286149793</v>
       </c>
       <c r="K38" t="n">
-        <v>81.98694239675307</v>
+        <v>81.98694239675348</v>
       </c>
       <c r="L38" t="n">
-        <v>193.836595566936</v>
+        <v>193.8365955669364</v>
       </c>
       <c r="M38" t="n">
-        <v>349.9603232837995</v>
+        <v>349.9603232837999</v>
       </c>
       <c r="N38" t="n">
-        <v>513.224104516287</v>
+        <v>513.2241045162871</v>
       </c>
       <c r="O38" t="n">
-        <v>654.0542022708981</v>
+        <v>654.0542022708984</v>
       </c>
       <c r="P38" t="n">
-        <v>739.7484316260392</v>
+        <v>739.7484316260393</v>
       </c>
       <c r="Q38" t="n">
-        <v>755.9284824513315</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="R38" t="n">
-        <v>755.9284824513315</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="S38" t="n">
-        <v>755.9284824513315</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="T38" t="n">
-        <v>755.9284824513315</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="U38" t="n">
-        <v>565.0374515292781</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="V38" t="n">
-        <v>374.1464206072246</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="W38" t="n">
-        <v>374.1464206072246</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="X38" t="n">
-        <v>374.1464206072246</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="Y38" t="n">
-        <v>374.1464206072246</v>
+        <v>744.7682062299625</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>174.3560246544821</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="C39" t="n">
-        <v>174.3560246544821</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="D39" t="n">
-        <v>174.3560246544821</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="E39" t="n">
-        <v>15.11856964902663</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="F39" t="n">
-        <v>15.11856964902663</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="G39" t="n">
-        <v>15.11856964902663</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="H39" t="n">
-        <v>15.11856964902663</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="I39" t="n">
         <v>15.11856964902663</v>
       </c>
       <c r="J39" t="n">
-        <v>16.96051594049237</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="K39" t="n">
-        <v>69.52379439613109</v>
+        <v>67.68184810466536</v>
       </c>
       <c r="L39" t="n">
-        <v>186.5241501463473</v>
+        <v>184.6822038548816</v>
       </c>
       <c r="M39" t="n">
-        <v>342.4149149288554</v>
+        <v>340.5729686373897</v>
       </c>
       <c r="N39" t="n">
-        <v>516.840289303456</v>
+        <v>514.9983430119903</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1856348946411</v>
+        <v>652.3436886031755</v>
       </c>
       <c r="P39" t="n">
-        <v>745.084317067847</v>
+        <v>743.2423707763813</v>
       </c>
       <c r="Q39" t="n">
-        <v>755.9284824513315</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="R39" t="n">
-        <v>728.9145623287415</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="S39" t="n">
-        <v>728.9145623287415</v>
+        <v>636.9693974355725</v>
       </c>
       <c r="T39" t="n">
-        <v>728.9145623287415</v>
+        <v>446.0783665135191</v>
       </c>
       <c r="U39" t="n">
-        <v>538.023531406688</v>
+        <v>255.1873355914656</v>
       </c>
       <c r="V39" t="n">
-        <v>538.023531406688</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="W39" t="n">
-        <v>365.2470555765356</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="X39" t="n">
-        <v>365.2470555765356</v>
+        <v>64.29630466941218</v>
       </c>
       <c r="Y39" t="n">
-        <v>174.3560246544821</v>
+        <v>64.29630466941218</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>310.9630610727057</v>
+        <v>370.9608100333356</v>
       </c>
       <c r="C40" t="n">
-        <v>142.0268781447988</v>
+        <v>202.0246271054287</v>
       </c>
       <c r="D40" t="n">
-        <v>142.0268781447988</v>
+        <v>51.90798769309299</v>
       </c>
       <c r="E40" t="n">
-        <v>142.0268781447988</v>
+        <v>51.90798769309299</v>
       </c>
       <c r="F40" t="n">
-        <v>142.0268781447988</v>
+        <v>51.90798769309299</v>
       </c>
       <c r="G40" t="n">
-        <v>142.0268781447988</v>
+        <v>51.90798769309299</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0268781447988</v>
+        <v>51.90798769309299</v>
       </c>
       <c r="I40" t="n">
         <v>15.11856964902663</v>
@@ -7335,49 +7335,49 @@
         <v>15.11856964902663</v>
       </c>
       <c r="K40" t="n">
-        <v>45.46892901681713</v>
+        <v>45.46892901681721</v>
       </c>
       <c r="L40" t="n">
-        <v>218.6892943044585</v>
+        <v>218.6892943044586</v>
       </c>
       <c r="M40" t="n">
-        <v>405.7815937111631</v>
+        <v>405.7815937111632</v>
       </c>
       <c r="N40" t="n">
-        <v>592.8738931178676</v>
+        <v>592.8738931178677</v>
       </c>
       <c r="O40" t="n">
-        <v>755.9284824513315</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="P40" t="n">
-        <v>755.9284824513315</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="Q40" t="n">
-        <v>755.9284824513315</v>
+        <v>752.7428718774426</v>
       </c>
       <c r="R40" t="n">
-        <v>755.9284824513315</v>
+        <v>752.7428718774426</v>
       </c>
       <c r="S40" t="n">
-        <v>755.9284824513315</v>
+        <v>561.8518409553891</v>
       </c>
       <c r="T40" t="n">
-        <v>692.7451229168126</v>
+        <v>561.8518409553891</v>
       </c>
       <c r="U40" t="n">
-        <v>692.7451229168126</v>
+        <v>561.8518409553891</v>
       </c>
       <c r="V40" t="n">
-        <v>692.7451229168126</v>
+        <v>561.8518409553891</v>
       </c>
       <c r="W40" t="n">
-        <v>692.7451229168126</v>
+        <v>561.8518409553891</v>
       </c>
       <c r="X40" t="n">
-        <v>501.8540919947592</v>
+        <v>370.9608100333356</v>
       </c>
       <c r="Y40" t="n">
-        <v>310.9630610727057</v>
+        <v>370.9608100333356</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>332.5520177556402</v>
+        <v>22.9918011399609</v>
       </c>
       <c r="C41" t="n">
-        <v>332.5520177556402</v>
+        <v>22.9918011399609</v>
       </c>
       <c r="D41" t="n">
-        <v>332.5520177556402</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="E41" t="n">
-        <v>332.5520177556402</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="F41" t="n">
-        <v>332.5520177556402</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="G41" t="n">
-        <v>332.5520177556402</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="H41" t="n">
-        <v>141.6609868335867</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="I41" t="n">
         <v>15.11856964902663</v>
       </c>
       <c r="J41" t="n">
-        <v>21.57376286149793</v>
+        <v>21.57376286149808</v>
       </c>
       <c r="K41" t="n">
-        <v>81.98694239675348</v>
+        <v>81.98694239675355</v>
       </c>
       <c r="L41" t="n">
-        <v>193.8365955669364</v>
+        <v>193.8365955669365</v>
       </c>
       <c r="M41" t="n">
-        <v>349.9603232837999</v>
+        <v>349.9603232838</v>
       </c>
       <c r="N41" t="n">
-        <v>513.2241045162871</v>
+        <v>513.2241045162874</v>
       </c>
       <c r="O41" t="n">
-        <v>654.0542022708984</v>
+        <v>654.0542022708986</v>
       </c>
       <c r="P41" t="n">
-        <v>739.7484316260393</v>
+        <v>739.7484316260396</v>
       </c>
       <c r="Q41" t="n">
         <v>755.9284824513317</v>
       </c>
       <c r="R41" t="n">
-        <v>744.7682062299625</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="S41" t="n">
-        <v>744.7682062299625</v>
+        <v>595.6648939061213</v>
       </c>
       <c r="T41" t="n">
-        <v>714.3340795997472</v>
+        <v>404.7738629840678</v>
       </c>
       <c r="U41" t="n">
-        <v>714.3340795997472</v>
+        <v>404.7738629840678</v>
       </c>
       <c r="V41" t="n">
-        <v>714.3340795997472</v>
+        <v>404.7738629840678</v>
       </c>
       <c r="W41" t="n">
-        <v>523.4430486776937</v>
+        <v>213.8828320620144</v>
       </c>
       <c r="X41" t="n">
-        <v>332.5520177556402</v>
+        <v>22.9918011399609</v>
       </c>
       <c r="Y41" t="n">
-        <v>332.5520177556402</v>
+        <v>22.9918011399609</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>376.285790978125</v>
+        <v>565.0374515292782</v>
       </c>
       <c r="C42" t="n">
-        <v>201.8327616969979</v>
+        <v>565.0374515292782</v>
       </c>
       <c r="D42" t="n">
-        <v>201.8327616969979</v>
+        <v>450.2013710768455</v>
       </c>
       <c r="E42" t="n">
-        <v>201.8327616969979</v>
+        <v>450.2013710768455</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8327616969979</v>
+        <v>303.6668131037304</v>
       </c>
       <c r="G42" t="n">
-        <v>64.29630466941218</v>
+        <v>166.1303560761447</v>
       </c>
       <c r="H42" t="n">
         <v>64.29630466941218</v>
@@ -7490,13 +7490,13 @@
         <v>15.11856964902663</v>
       </c>
       <c r="J42" t="n">
-        <v>15.11856964902663</v>
+        <v>16.96051594049248</v>
       </c>
       <c r="K42" t="n">
-        <v>67.68184810466536</v>
+        <v>69.52379439613121</v>
       </c>
       <c r="L42" t="n">
-        <v>184.6822038548816</v>
+        <v>186.5241501463474</v>
       </c>
       <c r="M42" t="n">
         <v>342.4149149288555</v>
@@ -7523,19 +7523,19 @@
         <v>755.9284824513317</v>
       </c>
       <c r="U42" t="n">
-        <v>735.3921589202464</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="V42" t="n">
-        <v>735.3921589202464</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="W42" t="n">
-        <v>544.5011279981929</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="X42" t="n">
-        <v>544.5011279981929</v>
+        <v>565.0374515292782</v>
       </c>
       <c r="Y42" t="n">
-        <v>544.5011279981929</v>
+        <v>565.0374515292782</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>165.2352090613624</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="C43" t="n">
-        <v>165.2352090613624</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="D43" t="n">
         <v>15.11856964902663</v>
@@ -7575,13 +7575,13 @@
         <v>107.0916914632739</v>
       </c>
       <c r="L43" t="n">
-        <v>119.4621022247764</v>
+        <v>280.3120567509153</v>
       </c>
       <c r="M43" t="n">
-        <v>306.554401631481</v>
+        <v>453.1021378464046</v>
       </c>
       <c r="N43" t="n">
-        <v>493.6467010381856</v>
+        <v>476.8732056212276</v>
       </c>
       <c r="O43" t="n">
         <v>639.9277949546915</v>
@@ -7599,22 +7599,22 @@
         <v>755.9284824513317</v>
       </c>
       <c r="T43" t="n">
-        <v>728.6657357357089</v>
+        <v>587.791662415187</v>
       </c>
       <c r="U43" t="n">
-        <v>728.6657357357089</v>
+        <v>396.9006314931336</v>
       </c>
       <c r="V43" t="n">
-        <v>728.6657357357089</v>
+        <v>206.0096005710801</v>
       </c>
       <c r="W43" t="n">
-        <v>728.6657357357089</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="X43" t="n">
-        <v>537.7747048136555</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="Y43" t="n">
-        <v>346.883673891602</v>
+        <v>15.11856964902663</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>393.6135867626987</v>
+        <v>172.0951134638021</v>
       </c>
       <c r="C44" t="n">
-        <v>202.7225558406452</v>
+        <v>172.0951134638021</v>
       </c>
       <c r="D44" t="n">
-        <v>202.7225558406452</v>
+        <v>172.0951134638021</v>
       </c>
       <c r="E44" t="n">
-        <v>202.7225558406452</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="F44" t="n">
-        <v>202.7225558406452</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="G44" t="n">
-        <v>141.6609868335867</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="H44" t="n">
-        <v>141.6609868335867</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="I44" t="n">
         <v>15.11856964902663</v>
       </c>
       <c r="J44" t="n">
-        <v>21.57376286149808</v>
+        <v>21.57376286149771</v>
       </c>
       <c r="K44" t="n">
-        <v>81.98694239675355</v>
+        <v>81.98694239675318</v>
       </c>
       <c r="L44" t="n">
-        <v>193.8365955669365</v>
+        <v>193.8365955669361</v>
       </c>
       <c r="M44" t="n">
-        <v>349.9603232838</v>
+        <v>349.9603232837997</v>
       </c>
       <c r="N44" t="n">
-        <v>513.2241045162874</v>
+        <v>513.2241045162871</v>
       </c>
       <c r="O44" t="n">
-        <v>654.0542022708986</v>
+        <v>654.0542022708983</v>
       </c>
       <c r="P44" t="n">
-        <v>739.7484316260396</v>
+        <v>739.7484316260393</v>
       </c>
       <c r="Q44" t="n">
         <v>755.9284824513317</v>
@@ -7675,25 +7675,25 @@
         <v>744.7682062299625</v>
       </c>
       <c r="S44" t="n">
-        <v>584.5046176847521</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="T44" t="n">
-        <v>393.6135867626987</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="U44" t="n">
-        <v>393.6135867626987</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="V44" t="n">
-        <v>393.6135867626987</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="W44" t="n">
-        <v>393.6135867626987</v>
+        <v>744.7682062299625</v>
       </c>
       <c r="X44" t="n">
-        <v>393.6135867626987</v>
+        <v>553.8771753079091</v>
       </c>
       <c r="Y44" t="n">
-        <v>393.6135867626987</v>
+        <v>362.9861443858556</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>299.1895846497274</v>
+        <v>301.5894363378636</v>
       </c>
       <c r="C45" t="n">
-        <v>299.1895846497274</v>
+        <v>301.5894363378636</v>
       </c>
       <c r="D45" t="n">
-        <v>299.1895846497274</v>
+        <v>152.6550266766124</v>
       </c>
       <c r="E45" t="n">
-        <v>299.1895846497274</v>
+        <v>152.6550266766124</v>
       </c>
       <c r="F45" t="n">
         <v>152.6550266766124</v>
@@ -7739,10 +7739,10 @@
         <v>340.5729686373897</v>
       </c>
       <c r="N45" t="n">
-        <v>516.8402893034561</v>
+        <v>514.9983430119903</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1856348946412</v>
+        <v>652.3436886031755</v>
       </c>
       <c r="P45" t="n">
         <v>745.0843170678471</v>
@@ -7763,16 +7763,16 @@
         <v>565.0374515292782</v>
       </c>
       <c r="V45" t="n">
-        <v>565.0374515292782</v>
+        <v>492.4804672599171</v>
       </c>
       <c r="W45" t="n">
-        <v>374.1464206072247</v>
+        <v>301.5894363378636</v>
       </c>
       <c r="X45" t="n">
-        <v>374.1464206072247</v>
+        <v>301.5894363378636</v>
       </c>
       <c r="Y45" t="n">
-        <v>374.1464206072247</v>
+        <v>301.5894363378636</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.0316632314197</v>
+        <v>331.9678461593267</v>
       </c>
       <c r="C46" t="n">
         <v>163.0316632314197</v>
@@ -7809,16 +7809,16 @@
         <v>15.11856964902663</v>
       </c>
       <c r="K46" t="n">
-        <v>107.0916914632739</v>
+        <v>15.11856964902663</v>
       </c>
       <c r="L46" t="n">
-        <v>280.3120567509153</v>
+        <v>188.338934936668</v>
       </c>
       <c r="M46" t="n">
-        <v>451.1921559167466</v>
+        <v>375.4312343433726</v>
       </c>
       <c r="N46" t="n">
-        <v>638.2844553234512</v>
+        <v>476.8732056212276</v>
       </c>
       <c r="O46" t="n">
         <v>639.9277949546915</v>
@@ -7830,28 +7830,28 @@
         <v>755.9284824513317</v>
       </c>
       <c r="R46" t="n">
-        <v>621.8671623069173</v>
+        <v>755.9284824513317</v>
       </c>
       <c r="S46" t="n">
-        <v>621.8671623069173</v>
+        <v>565.0374515292782</v>
       </c>
       <c r="T46" t="n">
-        <v>430.9761313848638</v>
+        <v>565.0374515292782</v>
       </c>
       <c r="U46" t="n">
-        <v>353.9226941534732</v>
+        <v>522.8588770813801</v>
       </c>
       <c r="V46" t="n">
-        <v>353.9226941534732</v>
+        <v>331.9678461593267</v>
       </c>
       <c r="W46" t="n">
-        <v>353.9226941534732</v>
+        <v>331.9678461593267</v>
       </c>
       <c r="X46" t="n">
-        <v>353.9226941534732</v>
+        <v>331.9678461593267</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.0316632314197</v>
+        <v>331.9678461593267</v>
       </c>
     </row>
   </sheetData>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.860551809561471</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86055180956134</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,7 +8850,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>13.84162309793807</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
         <v>162.4747015415544</v>
@@ -8859,13 +8859,13 @@
         <v>172.5163158627231</v>
       </c>
       <c r="N13" t="n">
-        <v>164.9709410423046</v>
+        <v>102.7257264499241</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>48.49108035560717</v>
+        <v>17.83415170127324</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>15.12442232539937</v>
+        <v>16.98497413496128</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1.860551809561912</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>13.84162309793807</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>172.5163158627232</v>
+        <v>86.00083290428958</v>
       </c>
       <c r="N16" t="n">
         <v>164.9709410423047</v>
       </c>
       <c r="O16" t="n">
-        <v>100.7964517735021</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>17.83415170127324</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.860551809561244</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1.860551809561226</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,19 +9324,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>13.84162309793807</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>146.0987417022883</v>
       </c>
       <c r="M19" t="n">
-        <v>86.00083290428904</v>
+        <v>172.5163158627231</v>
       </c>
       <c r="N19" t="n">
         <v>164.9709410423046</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9485,10 +9485,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.860551809561471</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.860551809561429</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9561,13 +9561,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>89.8008416810586</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>172.5163158627231</v>
+        <v>110.2711012703426</v>
       </c>
       <c r="N22" t="n">
         <v>164.9709410423046</v>
@@ -9576,7 +9576,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>17.83415170127324</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>131.1696181513614</v>
       </c>
       <c r="L23" t="n">
-        <v>8.861819729224763</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>235.711617231109</v>
+        <v>235.7116172311091</v>
       </c>
       <c r="P23" t="n">
-        <v>291.4044135942102</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>15.12442232539937</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>142.9621017274923</v>
       </c>
       <c r="L24" t="n">
-        <v>259.7820637001948</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>204.2239387781559</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>286.1473905456597</v>
+        <v>286.1473905456598</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>264.9847935790163</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9892,10 +9892,10 @@
         <v>235.711617231109</v>
       </c>
       <c r="P26" t="n">
-        <v>35.28143974441873</v>
+        <v>291.4044135942102</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>52.08019521705575</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>15.12442232539937</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>189.8779233618147</v>
       </c>
       <c r="L27" t="n">
-        <v>259.7820637001948</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>239.2315689113373</v>
       </c>
       <c r="P27" t="n">
-        <v>41.06247267662931</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10114,16 +10114,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>263.0445414773054</v>
+        <v>102.6630135065975</v>
       </c>
       <c r="L29" t="n">
-        <v>264.9847935790163</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>220.2635061581268</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>213.05133088982</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>15.12442232539937</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,16 +10199,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>220.4988222534353</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>201.7769943826349</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>239.2315689113373</v>
       </c>
       <c r="P30" t="n">
-        <v>117.800288652091</v>
+        <v>189.8779233618148</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>8.125479499309478</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>213.0513308898198</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>235.711617231109</v>
+        <v>75.47682178826025</v>
       </c>
       <c r="P32" t="n">
         <v>291.4044135942102</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>15.12442232539937</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>259.7820637001948</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>286.1473905456597</v>
+        <v>169.3274285729573</v>
       </c>
       <c r="Q33" t="n">
-        <v>199.5407654657721</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,13 +10673,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.860551809561343</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.860551809561372</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10752,10 +10752,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>110.2711012703425</v>
+        <v>172.5163158627231</v>
       </c>
       <c r="N37" t="n">
-        <v>164.9709410423046</v>
+        <v>102.725726449924</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>16.98497413496072</v>
+        <v>15.12442232539937</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1.86055180956134</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,7 +10983,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>44.49855175227191</v>
+        <v>44.49855175227199</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>15.12442232539937</v>
+        <v>16.98497413496083</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.860551809561429</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11223,16 +11223,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>172.5163158627231</v>
+        <v>158.0696306998794</v>
       </c>
       <c r="N43" t="n">
-        <v>164.9709410423046</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>146.0987417022885</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11387,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1.860551809561457</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1.860551809561343</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11457,19 +11457,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>13.84162309793807</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>156.1403560234572</v>
+        <v>172.5163158627231</v>
       </c>
       <c r="N46" t="n">
-        <v>164.9709410423046</v>
+        <v>78.4554580838707</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -23263,13 +23263,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>165.70092100785</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>217.8939251288785</v>
+        <v>221.1480994120091</v>
       </c>
       <c r="G11" t="n">
         <v>413.0927927240659</v>
@@ -23278,7 +23278,7 @@
         <v>316.8422050242307</v>
       </c>
       <c r="I11" t="n">
-        <v>117.4824938366896</v>
+        <v>125.2769930127145</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.04867345915545</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4218162412264</v>
+        <v>24.43969562839348</v>
       </c>
       <c r="U11" t="n">
         <v>251.168857324551</v>
@@ -23357,7 +23357,7 @@
         <v>100.8157108926651</v>
       </c>
       <c r="I12" t="n">
-        <v>31.95065663345631</v>
+        <v>48.68595767018169</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.74378092136415</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>6.416606745485069</v>
+        <v>195.398727358318</v>
       </c>
       <c r="U12" t="n">
-        <v>36.88147036906949</v>
+        <v>225.8635909819024</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>43.81846653659235</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>62.71286254808669</v>
       </c>
       <c r="X12" t="n">
-        <v>16.79086459064456</v>
+        <v>26.79934447528336</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9996742052518</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.4135685089263</v>
       </c>
       <c r="I13" t="n">
         <v>125.6392254108145</v>
       </c>
       <c r="J13" t="n">
-        <v>23.27390578493652</v>
+        <v>5.393256440234786</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>132.7207069429703</v>
       </c>
       <c r="S13" t="n">
         <v>206.7408527760826</v>
@@ -23472,19 +23472,19 @@
         <v>223.7100128645788</v>
       </c>
       <c r="U13" t="n">
-        <v>198.1329692301653</v>
+        <v>97.28283755348306</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>63.15552271099509</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>97.54087772375809</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.60253273926187</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,10 +23500,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>283.1834148445394</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>192.9482494594288</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,10 +23512,10 @@
         <v>413.0927927240659</v>
       </c>
       <c r="H14" t="n">
-        <v>127.8600844113977</v>
+        <v>131.1142586945282</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>125.2769930127145</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>11.04867345915545</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.4218162412264</v>
+        <v>24.43969562839337</v>
       </c>
       <c r="U14" t="n">
         <v>251.168857324551</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>197.2558180432206</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,7 +23585,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>128.3339113566584</v>
       </c>
       <c r="G15" t="n">
         <v>136.1610924573098</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>26.74378092136415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>6.416606745484955</v>
+        <v>195.398727358318</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8635909819024</v>
+        <v>36.88147036906938</v>
       </c>
       <c r="V15" t="n">
         <v>43.81846653659224</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>62.71286254808658</v>
       </c>
       <c r="X15" t="n">
-        <v>199.5078434635989</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>132.1582479475903</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9996742052518</v>
+        <v>136.4186837805889</v>
       </c>
       <c r="H16" t="n">
         <v>153.4135685089263</v>
@@ -23676,7 +23676,7 @@
         <v>125.6392254108145</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>23.27390578493652</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>206.7408527760826</v>
       </c>
       <c r="T16" t="n">
-        <v>34.72789225174574</v>
+        <v>223.7100128645788</v>
       </c>
       <c r="U16" t="n">
-        <v>286.264958166316</v>
+        <v>97.28283755348295</v>
       </c>
       <c r="V16" t="n">
         <v>63.15552271099497</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>97.54087772375797</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>192.9482494594289</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>346.4250924247237</v>
+        <v>346.4250924247236</v>
       </c>
       <c r="G17" t="n">
         <v>413.0927927240659</v>
       </c>
       <c r="H17" t="n">
-        <v>316.8422050242307</v>
+        <v>127.8600844113979</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>213.4218162412264</v>
+        <v>24.43969562839354</v>
       </c>
       <c r="U17" t="n">
         <v>251.168857324551</v>
       </c>
       <c r="V17" t="n">
-        <v>138.770137857302</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.1610924573098</v>
       </c>
       <c r="H18" t="n">
         <v>100.8157108926651</v>
@@ -23864,7 +23864,7 @@
         <v>149.7201507990578</v>
       </c>
       <c r="T18" t="n">
-        <v>191.8481489012088</v>
+        <v>6.416606745485126</v>
       </c>
       <c r="U18" t="n">
         <v>225.8635909819024</v>
@@ -23873,13 +23873,13 @@
         <v>43.81846653659241</v>
       </c>
       <c r="W18" t="n">
-        <v>62.71286254808675</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.7005751644715</v>
+        <v>43.52208789991994</v>
       </c>
     </row>
     <row r="19">
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>133.5120762058149</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.9996742052518</v>
@@ -23913,7 +23913,7 @@
         <v>125.6392254108145</v>
       </c>
       <c r="J19" t="n">
-        <v>23.27390578493652</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>3.15375446815024</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>132.7207069429703</v>
       </c>
       <c r="S19" t="n">
-        <v>17.75873216324979</v>
+        <v>206.7408527760826</v>
       </c>
       <c r="T19" t="n">
-        <v>34.72789225174591</v>
+        <v>223.7100128645788</v>
       </c>
       <c r="U19" t="n">
         <v>286.264958166316</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>63.15552271099514</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>226.6605531998501</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.60253273926193</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>176.2907711581746</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>217.8939251288785</v>
       </c>
       <c r="G20" t="n">
-        <v>224.110672111233</v>
+        <v>413.0927927240659</v>
       </c>
       <c r="H20" t="n">
         <v>316.8422050242307</v>
@@ -24022,22 +24022,22 @@
         <v>158.6609526597583</v>
       </c>
       <c r="T20" t="n">
-        <v>213.4218162412264</v>
+        <v>58.01503786459867</v>
       </c>
       <c r="U20" t="n">
-        <v>62.18673671171805</v>
+        <v>251.168857324551</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>160.2588481045801</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>230.8311602794259</v>
+        <v>197.2558180432207</v>
       </c>
     </row>
     <row r="21">
@@ -24053,13 +24053,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>109.7852044977222</v>
       </c>
       <c r="G21" t="n">
         <v>136.1610924573098</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>26.74378092136415</v>
       </c>
       <c r="S21" t="n">
         <v>149.7201507990578</v>
       </c>
       <c r="T21" t="n">
-        <v>6.416606745485069</v>
+        <v>195.398727358318</v>
       </c>
       <c r="U21" t="n">
-        <v>36.88147036906949</v>
+        <v>225.8635909819024</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24113,10 +24113,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>194.8569050579252</v>
+        <v>16.79086459064456</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>16.70057516447145</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>136.418683780589</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>153.4135685089263</v>
@@ -24186,10 +24186,10 @@
         <v>286.264958166316</v>
       </c>
       <c r="V22" t="n">
-        <v>63.15552271099509</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>233.9595615043471</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>4.769600437814802</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>3.966128846596064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.0927927240659</v>
+        <v>35.12855149840016</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>316.8422050242307</v>
       </c>
       <c r="I23" t="n">
         <v>125.2769930127145</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>11.04867345915545</v>
       </c>
       <c r="S23" t="n">
         <v>158.6609526597583</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.4218162412264</v>
       </c>
       <c r="U23" t="n">
         <v>251.168857324551</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>16.33006504584665</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>187.9522159751813</v>
+        <v>8.273697430387813</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.1610924573098</v>
       </c>
       <c r="H24" t="n">
         <v>100.8157108926651</v>
       </c>
       <c r="I24" t="n">
-        <v>48.68595767018169</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>26.74378092136415</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>149.7201507990578</v>
       </c>
       <c r="T24" t="n">
-        <v>9.267086044643918</v>
+        <v>4.881560633688537</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8635909819024</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9996742052518</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.4135685089263</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>125.6392254108145</v>
       </c>
       <c r="J25" t="n">
-        <v>23.27390578493652</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>132.7207069429703</v>
       </c>
       <c r="S25" t="n">
-        <v>206.7408527760826</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.7100128645788</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>170.1507256715565</v>
       </c>
       <c r="W25" t="n">
-        <v>159.1542722348836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.769600437814859</v>
+        <v>41.58979744471753</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>285.9706900983206</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.0927927240659</v>
+        <v>35.12855149840016</v>
       </c>
       <c r="H26" t="n">
         <v>316.8422050242307</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>11.04867345915545</v>
       </c>
       <c r="S26" t="n">
         <v>158.6609526597583</v>
@@ -24499,19 +24499,19 @@
         <v>213.4218162412264</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.168857324551</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.27369743038787</v>
+        <v>8.273697430387813</v>
       </c>
     </row>
     <row r="27">
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>118.5353719836321</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>136.1610924573098</v>
       </c>
       <c r="H27" t="n">
-        <v>100.8157108926651</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>48.68595767018169</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8635909819024</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>183.2179624056463</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>172.8496713177347</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24624,7 +24624,7 @@
         <v>125.6392254108145</v>
       </c>
       <c r="J28" t="n">
-        <v>23.27390578493652</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>3.15375446815024</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>132.7207069429703</v>
       </c>
       <c r="S28" t="n">
-        <v>122.3389942027121</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.7100128645788</v>
       </c>
       <c r="U28" t="n">
-        <v>286.264958166316</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.769600437814859</v>
+        <v>313.2952169713631</v>
       </c>
       <c r="C29" t="n">
-        <v>362.9297794815349</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>28.91180451604572</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.0927927240659</v>
+        <v>35.12855149840016</v>
       </c>
       <c r="H29" t="n">
         <v>316.8422050242307</v>
       </c>
       <c r="I29" t="n">
-        <v>125.2769930127145</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>158.6609526597583</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>213.4218162412264</v>
@@ -24739,7 +24739,7 @@
         <v>251.168857324551</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>123.7951649069051</v>
+        <v>136.1610924573098</v>
       </c>
       <c r="H30" t="n">
-        <v>100.8157108926651</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>48.68595767018169</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>26.74378092136415</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>149.7201507990578</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>195.398727358318</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>194.5801537396264</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>77.12745166586608</v>
+        <v>166.9996742052518</v>
       </c>
       <c r="H31" t="n">
-        <v>153.4135685089263</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>125.6392254108145</v>
@@ -24885,22 +24885,22 @@
         <v>3.15375446815024</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>132.7207069429703</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>206.7408527760826</v>
       </c>
       <c r="T31" t="n">
         <v>223.7100128645788</v>
       </c>
       <c r="U31" t="n">
-        <v>286.264958166316</v>
+        <v>56.50553677372622</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>4.769600437814802</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>20.12946195361411</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>3.966128846596064</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24973,19 +24973,19 @@
         <v>213.4218162412264</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.168857324551</v>
       </c>
       <c r="V32" t="n">
-        <v>215.644263619364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>8.273697430387813</v>
       </c>
     </row>
     <row r="33">
@@ -25001,10 +25001,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25016,7 +25016,7 @@
         <v>100.8157108926651</v>
       </c>
       <c r="I33" t="n">
-        <v>48.68595767018169</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>26.74378092136415</v>
       </c>
       <c r="S33" t="n">
         <v>149.7201507990578</v>
@@ -25055,13 +25055,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>20.99667848401265</v>
+        <v>142.2560160493924</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>91.33042390495736</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,19 +25086,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9996742052518</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.4135685089263</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>125.6392254108145</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.27390578493652</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>3.15375446815024</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>132.7207069429703</v>
       </c>
       <c r="S34" t="n">
         <v>206.7408527760826</v>
@@ -25131,13 +25131,13 @@
         <v>223.7100128645788</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.264958166316</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>254.397328559865</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>217.8939251288785</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>246.6373408882828</v>
+        <v>413.0927927240659</v>
       </c>
       <c r="H35" t="n">
         <v>316.8422050242307</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>11.04867345915545</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>158.6609526597583</v>
+        <v>3.254174283130538</v>
       </c>
       <c r="T35" t="n">
-        <v>213.4218162412264</v>
+        <v>24.43969562839351</v>
       </c>
       <c r="U35" t="n">
         <v>62.18673671171808</v>
       </c>
       <c r="V35" t="n">
-        <v>138.770137857302</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>180.7489800656361</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25241,13 +25241,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.1610924573098</v>
+        <v>114.8325321845168</v>
       </c>
       <c r="H36" t="n">
         <v>100.8157108926651</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>26.74378092136415</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>149.7201507990578</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>6.416606745485097</v>
+        <v>195.398727358318</v>
       </c>
       <c r="U36" t="n">
-        <v>36.88147036906952</v>
+        <v>225.8635909819024</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>43.81846653659238</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>62.71286254808672</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>16.77830697855569</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>172.5248955422111</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.9996742052518</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.15375446815024</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>132.7207069429703</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>206.7408527760826</v>
+        <v>17.75873216324976</v>
       </c>
       <c r="T37" t="n">
-        <v>216.7993744057679</v>
+        <v>223.7100128645788</v>
       </c>
       <c r="U37" t="n">
         <v>97.28283755348309</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>97.54087772375811</v>
       </c>
       <c r="X37" t="n">
-        <v>36.72753477620427</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,22 +25396,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>165.70092100785</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>217.8939251288785</v>
       </c>
       <c r="G38" t="n">
-        <v>371.9143339009973</v>
+        <v>224.110672111233</v>
       </c>
       <c r="H38" t="n">
-        <v>127.8600844113978</v>
+        <v>161.435426647603</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>125.2769930127145</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>11.04867345915545</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>158.6609526597583</v>
@@ -25447,10 +25447,10 @@
         <v>213.4218162412264</v>
       </c>
       <c r="U38" t="n">
-        <v>62.18673671171808</v>
+        <v>251.168857324551</v>
       </c>
       <c r="V38" t="n">
-        <v>138.770137857302</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25478,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25490,7 +25490,7 @@
         <v>100.8157108926651</v>
       </c>
       <c r="I39" t="n">
-        <v>48.68595767018169</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>26.74378092136415</v>
       </c>
       <c r="S39" t="n">
-        <v>149.7201507990578</v>
+        <v>31.95065663345628</v>
       </c>
       <c r="T39" t="n">
-        <v>195.398727358318</v>
+        <v>6.416606745485069</v>
       </c>
       <c r="U39" t="n">
-        <v>36.88147036906952</v>
+        <v>36.88147036906949</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>43.81846653659235</v>
       </c>
       <c r="W39" t="n">
-        <v>80.6462720890687</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>16.70057516447147</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>153.4135685089263</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>89.21770154718877</v>
       </c>
       <c r="J40" t="n">
         <v>23.27390578493652</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.15375446815024</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>132.7207069429703</v>
       </c>
       <c r="S40" t="n">
-        <v>206.7408527760826</v>
+        <v>17.75873216324973</v>
       </c>
       <c r="T40" t="n">
-        <v>161.1584869254051</v>
+        <v>223.7100128645788</v>
       </c>
       <c r="U40" t="n">
         <v>286.264958166316</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>36.72753477620427</v>
+        <v>36.72753477620424</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.6025327392619</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>346.888542444658</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25645,10 +25645,10 @@
         <v>413.0927927240659</v>
       </c>
       <c r="H41" t="n">
-        <v>127.8600844113978</v>
+        <v>316.8422050242307</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>125.2769930127145</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>11.04867345915545</v>
       </c>
       <c r="S41" t="n">
-        <v>158.6609526597583</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>183.2920308773132</v>
+        <v>24.43969562839348</v>
       </c>
       <c r="U41" t="n">
         <v>251.168857324551</v>
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>33.75734591673036</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>100.8157108926651</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25763,16 +25763,16 @@
         <v>195.398727358318</v>
       </c>
       <c r="U42" t="n">
-        <v>205.532630686128</v>
+        <v>225.8635909819024</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>62.71286254808669</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>16.79086459064456</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25839,22 +25839,22 @@
         <v>206.7408527760826</v>
       </c>
       <c r="T43" t="n">
-        <v>196.7198936161123</v>
+        <v>57.25456102879559</v>
       </c>
       <c r="U43" t="n">
-        <v>286.264958166316</v>
+        <v>97.28283755348306</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>63.15552271099509</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>97.54087772375809</v>
       </c>
       <c r="X43" t="n">
-        <v>36.72753477620424</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.60253273926187</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>193.7517210506477</v>
       </c>
       <c r="C44" t="n">
-        <v>176.2907711581746</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>226.523591695634</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>352.6418394070781</v>
+        <v>413.0927927240659</v>
       </c>
       <c r="H44" t="n">
         <v>316.8422050242307</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>125.2769930127145</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>158.6609526597583</v>
       </c>
       <c r="T44" t="n">
-        <v>24.43969562839348</v>
+        <v>213.4218162412264</v>
       </c>
       <c r="U44" t="n">
         <v>251.168857324551</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>180.7489800656361</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>197.2558180432207</v>
       </c>
     </row>
     <row r="45">
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>92.32591605194499</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>36.88147036906949</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>160.9691727227578</v>
       </c>
       <c r="W45" t="n">
         <v>62.71286254808669</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,19 +26070,19 @@
         <v>3.15375446815024</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>132.7207069429703</v>
       </c>
       <c r="S46" t="n">
-        <v>206.7408527760826</v>
+        <v>17.75873216324973</v>
       </c>
       <c r="T46" t="n">
-        <v>34.72789225174586</v>
+        <v>223.7100128645788</v>
       </c>
       <c r="U46" t="n">
-        <v>209.9820553072393</v>
+        <v>244.5081694628969</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>63.15552271099509</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.60253273926187</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>373733.6709568945</v>
+        <v>373733.6709568944</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>373733.6709568943</v>
+        <v>373733.6709568944</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>508491.0686913808</v>
+        <v>508491.0686913809</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>508491.068691381</v>
+        <v>508491.0686913808</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>508491.0686913808</v>
+        <v>508491.068691381</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373733.6709568944</v>
+        <v>373733.6709568942</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>373733.6709568946</v>
+        <v>373733.6709568945</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>614457.2540377787</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="D2" t="n">
         <v>614457.2540377787</v>
@@ -26325,37 +26325,37 @@
         <v>271345.2227998527</v>
       </c>
       <c r="F2" t="n">
-        <v>271345.2227998528</v>
+        <v>271345.2227998527</v>
       </c>
       <c r="G2" t="n">
+        <v>271345.2227998527</v>
+      </c>
+      <c r="H2" t="n">
+        <v>271345.2227998527</v>
+      </c>
+      <c r="I2" t="n">
+        <v>341843.2614730272</v>
+      </c>
+      <c r="J2" t="n">
+        <v>341843.261473027</v>
+      </c>
+      <c r="K2" t="n">
+        <v>341843.2614730272</v>
+      </c>
+      <c r="L2" t="n">
+        <v>341843.2614730273</v>
+      </c>
+      <c r="M2" t="n">
         <v>271345.2227998526</v>
-      </c>
-      <c r="H2" t="n">
-        <v>271345.2227998528</v>
-      </c>
-      <c r="I2" t="n">
-        <v>341843.2614730273</v>
-      </c>
-      <c r="J2" t="n">
-        <v>341843.2614730273</v>
-      </c>
-      <c r="K2" t="n">
-        <v>341843.2614730271</v>
-      </c>
-      <c r="L2" t="n">
-        <v>341843.2614730272</v>
-      </c>
-      <c r="M2" t="n">
-        <v>271345.2227998527</v>
       </c>
       <c r="N2" t="n">
         <v>271345.2227998527</v>
       </c>
       <c r="O2" t="n">
-        <v>271345.2227998527</v>
+        <v>271345.2227998528</v>
       </c>
       <c r="P2" t="n">
-        <v>271345.2227998528</v>
+        <v>271345.2227998526</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>50254.31449548511</v>
+        <v>50254.31449548509</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26438,16 +26438,16 @@
         <v>12103.9166893166</v>
       </c>
       <c r="I4" t="n">
+        <v>53007.78839507306</v>
+      </c>
+      <c r="J4" t="n">
+        <v>53007.78839507306</v>
+      </c>
+      <c r="K4" t="n">
         <v>53007.78839507305</v>
       </c>
-      <c r="J4" t="n">
-        <v>53007.78839507305</v>
-      </c>
-      <c r="K4" t="n">
-        <v>53007.78839507304</v>
-      </c>
       <c r="L4" t="n">
-        <v>53007.78839507305</v>
+        <v>53007.78839507306</v>
       </c>
       <c r="M4" t="n">
         <v>12103.9166893166</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144555.7743185305</v>
+        <v>144511.6385398494</v>
       </c>
       <c r="C6" t="n">
-        <v>144555.7743185305</v>
+        <v>144511.6385398495</v>
       </c>
       <c r="D6" t="n">
-        <v>144555.7743185305</v>
+        <v>144511.6385398494</v>
       </c>
       <c r="E6" t="n">
-        <v>-262308.41194793</v>
+        <v>-273789.615434542</v>
       </c>
       <c r="F6" t="n">
-        <v>235767.215061506</v>
+        <v>224286.0115748939</v>
       </c>
       <c r="G6" t="n">
-        <v>235767.2150615058</v>
+        <v>224286.0115748939</v>
       </c>
       <c r="H6" t="n">
-        <v>235767.215061506</v>
+        <v>224286.0115748939</v>
       </c>
       <c r="I6" t="n">
-        <v>203616.9546001787</v>
+        <v>194485.6857360058</v>
       </c>
       <c r="J6" t="n">
-        <v>253871.2690956638</v>
+        <v>244740.0002314906</v>
       </c>
       <c r="K6" t="n">
-        <v>253871.2690956637</v>
+        <v>244740.0002314909</v>
       </c>
       <c r="L6" t="n">
-        <v>253871.2690956637</v>
+        <v>244740.000231491</v>
       </c>
       <c r="M6" t="n">
-        <v>235767.2150615059</v>
+        <v>224286.0115748938</v>
       </c>
       <c r="N6" t="n">
-        <v>235767.2150615059</v>
+        <v>224286.0115748939</v>
       </c>
       <c r="O6" t="n">
-        <v>235767.2150615059</v>
+        <v>224286.011574894</v>
       </c>
       <c r="P6" t="n">
-        <v>235767.215061506</v>
+        <v>224286.0115748938</v>
       </c>
     </row>
   </sheetData>
@@ -26810,16 +26810,16 @@
         <v>188.9821206128329</v>
       </c>
       <c r="I4" t="n">
-        <v>377.9642412256657</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="J4" t="n">
-        <v>377.9642412256657</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="K4" t="n">
-        <v>377.9642412256657</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="L4" t="n">
-        <v>377.9642412256657</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="M4" t="n">
         <v>188.9821206128329</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>188.9821206128328</v>
+        <v>188.9821206128327</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>53.09422066226134</v>
       </c>
       <c r="L12" t="n">
-        <v>118.1821775254709</v>
+        <v>120.0427293350324</v>
       </c>
       <c r="M12" t="n">
         <v>157.4654189722304</v>
@@ -35509,7 +35509,7 @@
         <v>91.81685068000598</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.81425421712154</v>
+        <v>10.9537024075602</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>92.90214324671446</v>
       </c>
       <c r="L13" t="n">
         <v>174.9700659471125</v>
@@ -35579,13 +35579,13 @@
         <v>188.9821206128329</v>
       </c>
       <c r="N13" t="n">
-        <v>188.9821206128329</v>
+        <v>126.7369060204524</v>
       </c>
       <c r="O13" t="n">
         <v>164.7016053873373</v>
       </c>
       <c r="P13" t="n">
-        <v>30.65692865433393</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.860551809561916</v>
       </c>
       <c r="K15" t="n">
         <v>53.09422066226134</v>
@@ -35737,7 +35737,7 @@
         <v>157.4654189722304</v>
       </c>
       <c r="N15" t="n">
-        <v>178.0477986525928</v>
+        <v>176.1872468430309</v>
       </c>
       <c r="O15" t="n">
         <v>138.7326723143285</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>92.90214324671446</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>174.9700659471125</v>
       </c>
       <c r="M16" t="n">
-        <v>188.982120612833</v>
+        <v>102.4666376543994</v>
       </c>
       <c r="N16" t="n">
         <v>188.982120612833</v>
       </c>
       <c r="O16" t="n">
-        <v>102.456390794957</v>
+        <v>164.7016053873373</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>117.1724116127679</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>53.09422066226134</v>
       </c>
       <c r="L18" t="n">
-        <v>120.0427293350322</v>
+        <v>118.1821775254709</v>
       </c>
       <c r="M18" t="n">
         <v>157.4654189722304</v>
@@ -35983,7 +35983,7 @@
         <v>91.81685068000598</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.9537024075602</v>
+        <v>12.81425421712143</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,19 +36044,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>92.90214324671446</v>
       </c>
       <c r="L19" t="n">
-        <v>174.9700659471125</v>
+        <v>158.5941061078464</v>
       </c>
       <c r="M19" t="n">
-        <v>102.4666376543988</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="N19" t="n">
         <v>188.9821206128329</v>
       </c>
       <c r="O19" t="n">
-        <v>164.7016053873373</v>
+        <v>1.659939021454875</v>
       </c>
       <c r="P19" t="n">
         <v>117.1724116127679</v>
@@ -36205,10 +36205,10 @@
         <v>53.09422066226134</v>
       </c>
       <c r="L21" t="n">
-        <v>120.0427293350324</v>
+        <v>118.1821775254709</v>
       </c>
       <c r="M21" t="n">
-        <v>157.4654189722304</v>
+        <v>159.3259707817918</v>
       </c>
       <c r="N21" t="n">
         <v>176.1872468430309</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>75.95921858312053</v>
+        <v>92.90214324671446</v>
       </c>
       <c r="L22" t="n">
-        <v>12.49536440555806</v>
+        <v>174.9700659471125</v>
       </c>
       <c r="M22" t="n">
-        <v>188.9821206128329</v>
+        <v>126.7369060204524</v>
       </c>
       <c r="N22" t="n">
         <v>188.9821206128329</v>
@@ -36296,7 +36296,7 @@
         <v>164.7016053873373</v>
       </c>
       <c r="P22" t="n">
-        <v>117.1724116127679</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>6.520397184314589</v>
+        <v>175.6170123563884</v>
       </c>
       <c r="K23" t="n">
-        <v>61.02341367197522</v>
+        <v>192.1930318233367</v>
       </c>
       <c r="L23" t="n">
-        <v>121.8412673758742</v>
+        <v>112.9794476466494</v>
       </c>
       <c r="M23" t="n">
         <v>157.7007350675389</v>
@@ -36372,10 +36372,10 @@
         <v>164.9129103358459</v>
       </c>
       <c r="O23" t="n">
-        <v>377.9642412256657</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="P23" t="n">
-        <v>377.9642412256657</v>
+        <v>86.55982763145556</v>
       </c>
       <c r="Q23" t="n">
         <v>228.6584763420182</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>110.9666130150095</v>
       </c>
       <c r="K24" t="n">
-        <v>53.09422066226134</v>
+        <v>196.0563223897537</v>
       </c>
       <c r="L24" t="n">
-        <v>377.9642412256657</v>
+        <v>118.1821775254709</v>
       </c>
       <c r="M24" t="n">
-        <v>361.6893577503863</v>
+        <v>157.4654189722304</v>
       </c>
       <c r="N24" t="n">
         <v>176.1872468430309</v>
@@ -36454,10 +36454,10 @@
         <v>138.7326723143285</v>
       </c>
       <c r="P24" t="n">
-        <v>377.9642412256657</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="Q24" t="n">
-        <v>10.9537024075602</v>
+        <v>221.0309901434093</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6.520397184314589</v>
+        <v>175.6170123563884</v>
       </c>
       <c r="K26" t="n">
         <v>61.02341367197522</v>
       </c>
       <c r="L26" t="n">
-        <v>377.9642412256657</v>
+        <v>112.9794476466494</v>
       </c>
       <c r="M26" t="n">
         <v>157.7007350675389</v>
@@ -36609,13 +36609,13 @@
         <v>164.9129103358459</v>
       </c>
       <c r="O26" t="n">
-        <v>377.9642412256657</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="P26" t="n">
-        <v>121.8412673758743</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="Q26" t="n">
-        <v>228.6584763420182</v>
+        <v>68.42368089916928</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>110.9666130150095</v>
       </c>
       <c r="K27" t="n">
-        <v>53.09422066226134</v>
+        <v>242.972144024076</v>
       </c>
       <c r="L27" t="n">
-        <v>377.9642412256657</v>
+        <v>118.1821775254709</v>
       </c>
       <c r="M27" t="n">
         <v>157.4654189722304</v>
@@ -36688,10 +36688,10 @@
         <v>176.1872468430309</v>
       </c>
       <c r="O27" t="n">
-        <v>377.9642412256657</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="P27" t="n">
-        <v>132.8793233566353</v>
+        <v>91.81685068000598</v>
       </c>
       <c r="Q27" t="n">
         <v>221.0309901434093</v>
@@ -36834,16 +36834,16 @@
         <v>6.520397184314589</v>
       </c>
       <c r="K29" t="n">
-        <v>324.0679551492806</v>
+        <v>163.6864271785727</v>
       </c>
       <c r="L29" t="n">
-        <v>377.9642412256657</v>
+        <v>112.9794476466494</v>
       </c>
       <c r="M29" t="n">
-        <v>377.9642412256657</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="N29" t="n">
-        <v>164.9129103358459</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="O29" t="n">
         <v>142.2526239945567</v>
@@ -36852,7 +36852,7 @@
         <v>86.55982763145556</v>
       </c>
       <c r="Q29" t="n">
-        <v>16.34348568211354</v>
+        <v>228.6584763420182</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>110.9666130150095</v>
       </c>
       <c r="K30" t="n">
         <v>53.09422066226134</v>
@@ -36919,16 +36919,16 @@
         <v>118.1821775254709</v>
       </c>
       <c r="M30" t="n">
-        <v>377.9642412256657</v>
+        <v>157.4654189722304</v>
       </c>
       <c r="N30" t="n">
-        <v>377.9642412256657</v>
+        <v>176.1872468430309</v>
       </c>
       <c r="O30" t="n">
-        <v>138.7326723143285</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="P30" t="n">
-        <v>209.617139332097</v>
+        <v>281.6947740418208</v>
       </c>
       <c r="Q30" t="n">
         <v>221.0309901434093</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>6.520397184314589</v>
+        <v>175.6170123563884</v>
       </c>
       <c r="K32" t="n">
         <v>61.02341367197522</v>
       </c>
       <c r="L32" t="n">
-        <v>121.1049271459589</v>
+        <v>112.9794476466494</v>
       </c>
       <c r="M32" t="n">
         <v>157.7007350675389</v>
       </c>
       <c r="N32" t="n">
-        <v>377.9642412256657</v>
+        <v>164.9129103358459</v>
       </c>
       <c r="O32" t="n">
-        <v>377.9642412256657</v>
+        <v>217.729445782817</v>
       </c>
       <c r="P32" t="n">
-        <v>377.9642412256657</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="Q32" t="n">
-        <v>16.34348568211354</v>
+        <v>228.6584763420182</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>110.9666130150095</v>
       </c>
       <c r="K33" t="n">
-        <v>317.5594576748399</v>
+        <v>53.09422066226134</v>
       </c>
       <c r="L33" t="n">
-        <v>118.1821775254709</v>
+        <v>377.9642412256658</v>
       </c>
       <c r="M33" t="n">
         <v>157.4654189722304</v>
@@ -37165,10 +37165,10 @@
         <v>138.7326723143285</v>
       </c>
       <c r="P33" t="n">
-        <v>377.9642412256657</v>
+        <v>261.1442792529633</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.4944678733323</v>
+        <v>221.0309901434093</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,13 +37320,13 @@
         <v>164.9129103358459</v>
       </c>
       <c r="O35" t="n">
-        <v>142.2526239945567</v>
+        <v>142.2526239945563</v>
       </c>
       <c r="P35" t="n">
         <v>86.55982763145556</v>
       </c>
       <c r="Q35" t="n">
-        <v>16.34348568211304</v>
+        <v>16.34348568211354</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>118.1821775254709</v>
       </c>
       <c r="M36" t="n">
-        <v>159.3259707817917</v>
+        <v>157.4654189722304</v>
       </c>
       <c r="N36" t="n">
         <v>176.1872468430309</v>
       </c>
       <c r="O36" t="n">
-        <v>138.7326723143285</v>
+        <v>140.5932241238898</v>
       </c>
       <c r="P36" t="n">
         <v>91.81685068000598</v>
@@ -37472,10 +37472,10 @@
         <v>174.9700659471125</v>
       </c>
       <c r="M37" t="n">
+        <v>188.9821206128329</v>
+      </c>
+      <c r="N37" t="n">
         <v>126.7369060204523</v>
-      </c>
-      <c r="N37" t="n">
-        <v>188.9821206128329</v>
       </c>
       <c r="O37" t="n">
         <v>164.7016053873373</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>6.52039718431411</v>
+        <v>6.520397184314589</v>
       </c>
       <c r="K38" t="n">
         <v>61.02341367197522</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.860551809561354</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>53.09422066226134</v>
@@ -37642,7 +37642,7 @@
         <v>91.81685068000598</v>
       </c>
       <c r="Q39" t="n">
-        <v>10.9537024075602</v>
+        <v>12.81425421712154</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>30.65692865433384</v>
+        <v>30.65692865433392</v>
       </c>
       <c r="L40" t="n">
         <v>174.9700659471125</v>
@@ -37800,7 +37800,7 @@
         <v>86.55982763145556</v>
       </c>
       <c r="Q41" t="n">
-        <v>16.34348568211354</v>
+        <v>16.34348568211316</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1.860551809561465</v>
       </c>
       <c r="K42" t="n">
         <v>53.09422066226134</v>
@@ -37867,7 +37867,7 @@
         <v>118.1821775254709</v>
       </c>
       <c r="M42" t="n">
-        <v>159.3259707817918</v>
+        <v>157.4654189722304</v>
       </c>
       <c r="N42" t="n">
         <v>176.1872468430309</v>
@@ -37943,16 +37943,16 @@
         <v>92.90214324671446</v>
       </c>
       <c r="L43" t="n">
-        <v>12.49536440555806</v>
+        <v>174.9700659471125</v>
       </c>
       <c r="M43" t="n">
-        <v>188.9821206128329</v>
+        <v>174.5354354499891</v>
       </c>
       <c r="N43" t="n">
-        <v>188.9821206128329</v>
+        <v>24.01117957052833</v>
       </c>
       <c r="O43" t="n">
-        <v>147.7586807237434</v>
+        <v>164.7016053873373</v>
       </c>
       <c r="P43" t="n">
         <v>117.1724116127679</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>6.520397184314589</v>
+        <v>6.520397184314221</v>
       </c>
       <c r="K44" t="n">
         <v>61.02341367197522</v>
@@ -38037,7 +38037,7 @@
         <v>86.55982763145556</v>
       </c>
       <c r="Q44" t="n">
-        <v>16.34348568211316</v>
+        <v>16.34348568211354</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>157.4654189722304</v>
       </c>
       <c r="N45" t="n">
-        <v>178.0477986525923</v>
+        <v>176.1872468430309</v>
       </c>
       <c r="O45" t="n">
         <v>138.7326723143285</v>
       </c>
       <c r="P45" t="n">
-        <v>91.81685068000598</v>
+        <v>93.67740248956733</v>
       </c>
       <c r="Q45" t="n">
         <v>10.9537024075602</v>
@@ -38177,19 +38177,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>92.90214324671446</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>174.9700659471125</v>
       </c>
       <c r="M46" t="n">
-        <v>172.606160773567</v>
+        <v>188.9821206128329</v>
       </c>
       <c r="N46" t="n">
-        <v>188.9821206128329</v>
+        <v>102.466637654399</v>
       </c>
       <c r="O46" t="n">
-        <v>1.659939021454875</v>
+        <v>164.7016053873373</v>
       </c>
       <c r="P46" t="n">
         <v>117.1724116127679</v>
